--- a/EfficiencyStudy/results/MadgraphMLM/report_TopHN_systematics.xlsx
+++ b/EfficiencyStudy/results/MadgraphMLM/report_TopHN_systematics.xlsx
@@ -557,7 +557,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.024 (2.84%)</t>
+          <t>0.019 (2.22%)</t>
         </is>
       </c>
     </row>
@@ -617,7 +617,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.026 (3.06%)</t>
+          <t>0.020 (2.33%)</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.023 (2.60%)</t>
+          <t>0.017 (1.97%)</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.011 (1.21%)</t>
+          <t>0.010 (1.09%)</t>
         </is>
       </c>
     </row>
@@ -797,7 +797,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.005 (0.47%)</t>
+          <t>0.004 (0.42%)</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.016 (1.88%)</t>
+          <t>0.013 (1.57%)</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.020 (2.33%)</t>
+          <t>0.017 (2.01%)</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.023 (2.56%)</t>
+          <t>0.016 (1.82%)</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.011 (1.24%)</t>
+          <t>0.010 (1.15%)</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.007 (0.84%)</t>
+          <t>0.006 (0.74%)</t>
         </is>
       </c>
     </row>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.015 (1.69%)</t>
+          <t>0.013 (1.47%)</t>
         </is>
       </c>
     </row>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.015 (1.65%)</t>
+          <t>0.011 (1.28%)</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.009 (0.97%)</t>
+          <t>0.008 (0.86%)</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.001 (0.16%)</t>
+          <t>0.001 (0.14%)</t>
         </is>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.008 (0.98%)</t>
+          <t>0.008 (0.95%)</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.007 (0.80%)</t>
+          <t>0.006 (0.72%)</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.008 (0.98%)</t>
+          <t>0.006 (0.76%)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.004 (0.42%)</t>
+          <t>0.003 (0.40%)</t>
         </is>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.24%)</t>
+          <t>0.002 (0.22%)</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.003 (0.35%)</t>
+          <t>0.003 (0.34%)</t>
         </is>
       </c>
     </row>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.036 (4.14%)</t>
+          <t>0.036 (4.13%)</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.022 (2.85%)</t>
+          <t>0.018 (2.33%)</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.029 (3.47%)</t>
+          <t>0.022 (2.69%)</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.023 (2.72%)</t>
+          <t>0.017 (1.95%)</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.010 (1.12%)</t>
+          <t>0.010 (1.06%)</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.003 (0.28%)</t>
+          <t>0.003 (0.26%)</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.016 (2.08%)</t>
+          <t>0.013 (1.62%)</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.022 (2.60%)</t>
+          <t>0.018 (2.16%)</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.025 (2.95%)</t>
+          <t>0.019 (2.29%)</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.012 (1.32%)</t>
+          <t>0.011 (1.24%)</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.006 (0.62%)</t>
+          <t>0.006 (0.61%)</t>
         </is>
       </c>
     </row>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.008 (1.04%)</t>
+          <t>0.007 (0.94%)</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.014 (1.70%)</t>
+          <t>0.012 (1.45%)</t>
         </is>
       </c>
     </row>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.016 (1.89%)</t>
+          <t>0.012 (1.46%)</t>
         </is>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.010 (1.13%)</t>
+          <t>0.009 (1.09%)</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.013 (1.84%)</t>
+          <t>0.013 (1.82%)</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.010 (1.30%)</t>
+          <t>0.009 (1.19%)</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.009 (1.15%)</t>
+          <t>0.007 (0.85%)</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.006 (0.71%)</t>
+          <t>0.005 (0.60%)</t>
         </is>
       </c>
     </row>
@@ -4653,7 +4653,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.004 (0.47%)</t>
+          <t>0.003 (0.37%)</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.007 (0.75%)</t>
+          <t>0.006 (0.73%)</t>
         </is>
       </c>
     </row>
@@ -4893,7 +4893,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.059 (6.29%)</t>
+          <t>0.058 (6.26%)</t>
         </is>
       </c>
     </row>
@@ -4994,42 +4994,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.830 (0.302%)</t>
+          <t>0.830 (100.302%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.839 (1.451%)</t>
+          <t>0.839 (101.451%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.814 (-1.644%)</t>
+          <t>0.814 (-3.094%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.827 (-0.012%)</t>
+          <t>0.827 (99.988%)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.827 (-0.097%)</t>
+          <t>0.827 (-0.085%)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.828 (0.060%)</t>
+          <t>0.828 (100.060%)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.827 (-0.024%)</t>
+          <t>0.827 (-0.085%)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.019 (2.24%)</t>
+          <t>1.662 (200.90%)</t>
         </is>
       </c>
     </row>
@@ -5054,42 +5054,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.862 (-0.128%)</t>
+          <t>0.862 (99.872%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.877 (1.669%)</t>
+          <t>0.877 (101.669%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.845 (-2.040%)</t>
+          <t>0.845 (-3.710%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.863 (-0.012%)</t>
+          <t>0.863 (99.988%)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.863 (0.000%)</t>
+          <t>0.863 (0.012%)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.863 (-0.012%)</t>
+          <t>0.863 (99.988%)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.863 (0.012%)</t>
+          <t>0.863 (0.023%)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.023 (2.65%)</t>
+          <t>1.732 (200.76%)</t>
         </is>
       </c>
     </row>
@@ -5114,42 +5114,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>0.887 (99.989%)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.901 (101.601%)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.873 (-3.191%)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0.887 (100.011%)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.886 (-0.045%)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.887 (100.034%)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>0.887 (-0.011%)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.901 (1.601%)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.873 (-1.590%)</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.887 (0.011%)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.886 (-0.034%)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.887 (0.034%)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.887 (0.023%)</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.020 (2.26%)</t>
+          <t>1.781 (200.82%)</t>
         </is>
       </c>
     </row>
@@ -5174,42 +5174,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.914 (-0.011%)</t>
+          <t>0.914 (99.989%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.923 (1.006%)</t>
+          <t>0.923 (101.006%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.910 (-0.492%)</t>
+          <t>0.910 (-1.499%)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
+          <t>0.914 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>0.914 (0.000%)</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.914 (0.000%)</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.914 (-0.022%)</t>
+          <t>0.914 (99.978%)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.914 (0.000%)</t>
+          <t>0.914 (0.022%)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.010 (1.12%)</t>
+          <t>1.833 (200.49%)</t>
         </is>
       </c>
     </row>
@@ -5234,22 +5234,22 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.949 (0.032%)</t>
+          <t>0.949 (100.032%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.950 (0.158%)</t>
+          <t>0.950 (100.158%)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.948 (-0.032%)</t>
+          <t>0.948 (-0.190%)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.949 (0.000%)</t>
+          <t>0.949 (100.000%)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -5259,17 +5259,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.949 (0.011%)</t>
+          <t>0.949 (100.011%)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.949 (0.000%)</t>
+          <t>0.949 (-0.011%)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>1.898 (200.10%)</t>
         </is>
       </c>
     </row>
@@ -5294,42 +5294,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.969 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.970 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.969 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>0.969 (-0.010%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.970 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.969 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.969 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.970 (0.021%)</t>
+          <t>0.970 (100.021%)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.969 (-0.010%)</t>
+          <t>0.969 (-0.031%)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.939 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -5354,42 +5354,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.973 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.973 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.973 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.973 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.973 (0.000%)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.973 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.973 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.973 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.973 (0.000%)</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.973 (0.021%)</t>
+          <t>0.973 (100.021%)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.973 (0.000%)</t>
+          <t>0.973 (-0.021%)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.946 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -5414,22 +5414,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.975 (0.000%)</t>
+          <t>0.975 (100.000%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>0.975 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>0.975 (0.010%)</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.975 (0.021%)</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.975 (0.000%)</t>
+          <t>0.975 (100.000%)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.975 (0.010%)</t>
+          <t>0.975 (100.010%)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.975 (-0.010%)</t>
+          <t>0.975 (-0.021%)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.949 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -5474,42 +5474,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.976 (-0.020%)</t>
+          <t>0.976 (99.980%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.975 (-0.061%)</t>
+          <t>0.975 (99.939%)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.975 (-0.102%)</t>
+          <t>0.975 (-0.041%)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.976 (-0.010%)</t>
+          <t>0.976 (99.990%)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.977 (0.123%)</t>
+          <t>0.977 (0.133%)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.977 (0.082%)</t>
+          <t>0.977 (100.082%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.977 (0.061%)</t>
+          <t>0.977 (-0.020%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.003 (0.33%)</t>
+          <t>1.952 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -5534,42 +5534,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.835 (0.000%)</t>
+          <t>0.835 (100.000%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.843 (0.910%)</t>
+          <t>0.843 (100.910%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.827 (-1.006%)</t>
+          <t>0.827 (-1.916%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.835 (-0.048%)</t>
+          <t>0.835 (99.952%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.831 (-0.443%)</t>
+          <t>0.831 (-0.395%)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.836 (0.084%)</t>
+          <t>0.836 (100.084%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.835 (-0.024%)</t>
+          <t>0.835 (-0.108%)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.013 (1.50%)</t>
+          <t>1.674 (200.48%)</t>
         </is>
       </c>
     </row>
@@ -5594,42 +5594,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.869 (-0.012%)</t>
+          <t>0.869 (99.988%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.879 (1.220%)</t>
+          <t>0.879 (101.220%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.854 (-1.669%)</t>
+          <t>0.854 (-2.889%)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.869 (-0.012%)</t>
+          <t>0.869 (99.988%)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.868 (-0.104%)</t>
+          <t>0.868 (-0.092%)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.869 (-0.023%)</t>
+          <t>0.869 (99.977%)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.869 (0.058%)</t>
+          <t>0.869 (0.081%)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.018 (2.09%)</t>
+          <t>1.743 (200.59%)</t>
         </is>
       </c>
     </row>
@@ -5654,42 +5654,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.883 (-0.034%)</t>
+          <t>0.883 (99.966%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.896 (1.415%)</t>
+          <t>0.896 (101.415%)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.868 (-1.767%)</t>
+          <t>0.868 (-3.182%)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.883 (-0.023%)</t>
+          <t>0.883 (99.977%)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>0.883 (0.045%)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0.883 (99.989%)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
           <t>0.883 (0.023%)</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.883 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0.883 (0.011%)</t>
-        </is>
-      </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.020 (2.27%)</t>
+          <t>1.772 (200.68%)</t>
         </is>
       </c>
     </row>
@@ -5714,42 +5714,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.905 (0.000%)</t>
+          <t>0.905 (100.000%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.916 (1.160%)</t>
+          <t>0.916 (101.160%)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.899 (-0.641%)</t>
+          <t>0.899 (-1.801%)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.905 (-0.011%)</t>
+          <t>0.905 (99.989%)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.905 (-0.044%)</t>
+          <t>0.905 (-0.033%)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.905 (-0.044%)</t>
+          <t>0.905 (99.956%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.905 (-0.011%)</t>
+          <t>0.905 (0.033%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.012 (1.33%)</t>
+          <t>1.816 (200.55%)</t>
         </is>
       </c>
     </row>
@@ -5774,42 +5774,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.938 (-0.032%)</t>
+          <t>0.938 (99.968%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.940 (0.107%)</t>
+          <t>0.940 (100.107%)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.938 (-0.075%)</t>
+          <t>0.938 (-0.181%)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.938 (-0.011%)</t>
+          <t>0.938 (99.989%)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.938 (-0.011%)</t>
+          <t>0.938 (0.000%)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.939 (0.011%)</t>
+          <t>0.939 (100.011%)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.939 (0.000%)</t>
+          <t>0.939 (-0.011%)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>1.877 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -5834,42 +5834,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.964 (0.000%)</t>
+          <t>0.964 (100.000%)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.964 (0.021%)</t>
+          <t>0.964 (100.021%)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>0.964 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.964 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>0.964 (-0.010%)</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.964 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.964 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.964 (0.021%)</t>
+          <t>0.964 (100.021%)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.964 (-0.010%)</t>
+          <t>0.964 (-0.031%)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.928 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -5894,22 +5894,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (100.000%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.968 (0.041%)</t>
+          <t>0.968 (100.041%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.968 (-0.021%)</t>
+          <t>0.968 (-0.062%)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.968 (0.000%)</t>
+          <t>0.968 (100.000%)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -5919,17 +5919,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.968 (0.031%)</t>
+          <t>0.968 (100.031%)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.968 (-0.010%)</t>
+          <t>0.968 (-0.041%)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.936 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -5954,42 +5954,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.969 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>0.969 (0.000%)</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0.969 (0.000%)</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.937 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -6014,42 +6014,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.973 (-0.185%)</t>
+          <t>0.973 (99.815%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.972 (-0.257%)</t>
+          <t>0.972 (99.743%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.972 (-0.226%)</t>
+          <t>0.972 (0.031%)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>0.973 (99.867%)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0.971 (-0.226%)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.975 (100.031%)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t>0.973 (-0.133%)</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>0.971 (-0.359%)</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0.975 (0.031%)</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0.973 (-0.103%)</t>
-        </is>
-      </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.007 (0.75%)</t>
+          <t>1.946 (199.73%)</t>
         </is>
       </c>
     </row>
@@ -6074,42 +6074,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.821 (0.000%)</t>
+          <t>0.821 (100.000%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.826 (0.585%)</t>
+          <t>0.826 (100.585%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.815 (-0.707%)</t>
+          <t>0.815 (-1.291%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.821 (-0.037%)</t>
+          <t>0.821 (99.963%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.819 (-0.244%)</t>
+          <t>0.819 (-0.207%)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.822 (0.097%)</t>
+          <t>0.822 (100.097%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.821 (0.000%)</t>
+          <t>0.821 (-0.097%)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.008 (0.99%)</t>
+          <t>1.644 (200.32%)</t>
         </is>
       </c>
     </row>
@@ -6134,42 +6134,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.850 (-0.047%)</t>
+          <t>0.850 (99.953%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.857 (0.847%)</t>
+          <t>0.857 (100.847%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.839 (-1.235%)</t>
+          <t>0.839 (-2.083%)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.850 (-0.024%)</t>
+          <t>0.850 (99.976%)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.851 (0.094%)</t>
+          <t>0.851 (0.118%)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.851 (0.082%)</t>
+          <t>0.851 (100.082%)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.850 (-0.024%)</t>
+          <t>0.850 (-0.106%)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.013 (1.51%)</t>
+          <t>1.703 (200.43%)</t>
         </is>
       </c>
     </row>
@@ -6194,42 +6194,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.872 (-0.046%)</t>
+          <t>0.872 (99.954%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.881 (1.043%)</t>
+          <t>0.881 (101.043%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.862 (-1.204%)</t>
+          <t>0.862 (-2.247%)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>0.872 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.872 (-0.023%)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.873 (100.023%)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>0.872 (-0.011%)</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.872 (-0.034%)</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0.873 (0.023%)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0.872 (0.011%)</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.014 (1.60%)</t>
+          <t>1.749 (200.51%)</t>
         </is>
       </c>
     </row>
@@ -6254,42 +6254,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.895 (-0.033%)</t>
+          <t>0.895 (99.967%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.903 (0.871%)</t>
+          <t>0.903 (100.871%)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.893 (-0.335%)</t>
+          <t>0.893 (-1.206%)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.895 (-0.011%)</t>
+          <t>0.895 (99.989%)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.896 (0.033%)</t>
+          <t>0.896 (0.045%)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.896 (0.011%)</t>
+          <t>0.896 (100.011%)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.896 (0.011%)</t>
+          <t>0.896 (0.000%)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.008 (0.94%)</t>
+          <t>1.795 (200.42%)</t>
         </is>
       </c>
     </row>
@@ -6314,42 +6314,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.926 (-0.043%)</t>
+          <t>0.926 (99.957%)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.927 (0.065%)</t>
+          <t>0.927 (100.065%)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.925 (-0.097%)</t>
+          <t>0.925 (-0.162%)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.926 (-0.011%)</t>
+          <t>0.926 (99.989%)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.926 (0.000%)</t>
+          <t>0.926 (0.011%)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.926 (0.022%)</t>
+          <t>0.926 (100.022%)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.926 (-0.011%)</t>
+          <t>0.926 (-0.032%)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>1.853 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -6374,42 +6374,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>0.949 (99.989%)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.949 (100.011%)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>0.949 (-0.011%)</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.949 (0.011%)</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.949 (0.000%)</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.949 (0.011%)</t>
+          <t>0.949 (100.011%)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.949 (0.000%)</t>
+          <t>0.949 (-0.011%)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.949 (0.021%)</t>
+          <t>0.949 (100.021%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.949 (0.000%)</t>
+          <t>0.949 (-0.021%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.897 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -6434,22 +6434,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.955 (0.000%)</t>
+          <t>0.955 (100.000%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.955 (0.042%)</t>
+          <t>0.955 (100.042%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.955 (-0.010%)</t>
+          <t>0.955 (-0.052%)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.955 (0.000%)</t>
+          <t>0.955 (100.000%)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6459,17 +6459,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.955 (0.031%)</t>
+          <t>0.955 (100.031%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.955 (0.000%)</t>
+          <t>0.955 (-0.031%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.910 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -6494,42 +6494,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>0.956 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.956 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.957 (0.042%)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.956 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>0.956 (0.000%)</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.956 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.957 (0.042%)</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0.956 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.956 (0.000%)</t>
-        </is>
-      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.957 (0.021%)</t>
+          <t>0.957 (100.021%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.956 (-0.010%)</t>
+          <t>0.956 (-0.031%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.913 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -6554,42 +6554,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.953 (-0.021%)</t>
+          <t>0.953 (99.979%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.953 (0.010%)</t>
+          <t>0.953 (100.010%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.953 (-0.063%)</t>
+          <t>0.953 (-0.073%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.953 (0.010%)</t>
+          <t>0.953 (100.010%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.955 (0.147%)</t>
+          <t>0.955 (0.136%)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.954 (0.084%)</t>
+          <t>0.954 (100.084%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.953 (-0.052%)</t>
+          <t>0.953 (-0.136%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.005 (0.50%)</t>
+          <t>1.907 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -6614,42 +6614,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.770 (-0.246%)</t>
+          <t>0.770 (99.754%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.773 (0.142%)</t>
+          <t>0.773 (100.142%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.768 (-0.544%)</t>
+          <t>0.768 (-0.686%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.772 (-0.052%)</t>
+          <t>0.772 (99.948%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.774 (0.272%)</t>
+          <t>0.774 (0.324%)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.772 (-0.026%)</t>
+          <t>0.772 (99.974%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.772 (-0.039%)</t>
+          <t>0.772 (-0.013%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.006 (0.81%)</t>
+          <t>1.544 (199.91%)</t>
         </is>
       </c>
     </row>
@@ -6674,42 +6674,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.803 (-0.037%)</t>
+          <t>0.803 (99.963%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.808 (0.585%)</t>
+          <t>0.808 (100.585%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.796 (-0.822%)</t>
+          <t>0.796 (-1.407%)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.803 (-0.025%)</t>
+          <t>0.803 (99.975%)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.802 (-0.112%)</t>
+          <t>0.802 (-0.087%)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.804 (0.100%)</t>
+          <t>0.804 (100.100%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.803 (0.050%)</t>
+          <t>0.803 (-0.050%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.009 (1.07%)</t>
+          <t>1.609 (200.31%)</t>
         </is>
       </c>
     </row>
@@ -6734,42 +6734,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>0.828 (99.988%)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.833 (100.580%)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.822 (-1.232%)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0.828 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0.828 (0.036%)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0.828 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
           <t>0.828 (-0.012%)</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.833 (0.580%)</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.822 (-0.652%)</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>0.828 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>0.828 (0.036%)</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>0.828 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0.828 (-0.012%)</t>
-        </is>
-      </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.007 (0.89%)</t>
+          <t>1.658 (200.28%)</t>
         </is>
       </c>
     </row>
@@ -6794,22 +6794,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.853 (-0.070%)</t>
+          <t>0.853 (99.930%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.858 (0.539%)</t>
+          <t>0.858 (100.539%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.851 (-0.281%)</t>
+          <t>0.851 (-0.820%)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.854 (0.000%)</t>
+          <t>0.854 (100.000%)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -6819,17 +6819,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.854 (0.012%)</t>
+          <t>0.854 (100.012%)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.853 (-0.129%)</t>
+          <t>0.853 (-0.141%)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.005 (0.64%)</t>
+          <t>1.709 (200.24%)</t>
         </is>
       </c>
     </row>
@@ -6854,12 +6854,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.879 (-0.159%)</t>
+          <t>0.879 (99.841%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.880 (0.000%)</t>
+          <t>0.880 (100.000%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -6869,7 +6869,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.880 (0.000%)</t>
+          <t>0.880 (100.000%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -6879,17 +6879,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.881 (0.034%)</t>
+          <t>0.881 (100.034%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.880 (0.000%)</t>
+          <t>0.880 (-0.034%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.003 (0.32%)</t>
+          <t>1.760 (199.94%)</t>
         </is>
       </c>
     </row>
@@ -6914,42 +6914,42 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.900 (0.000%)</t>
+          <t>0.900 (100.000%)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.900 (0.011%)</t>
+          <t>0.900 (100.011%)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
+          <t>0.900 (-0.033%)</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.900 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.900 (0.033%)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0.900 (100.022%)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>0.900 (-0.022%)</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0.900 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.900 (0.033%)</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>0.900 (0.022%)</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0.900 (0.000%)</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.800 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -6974,22 +6974,22 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.906 (-0.297%)</t>
+          <t>0.906 (99.703%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.910 (0.154%)</t>
+          <t>0.910 (100.154%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.906 (-0.264%)</t>
+          <t>0.906 (-0.418%)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.909 (0.000%)</t>
+          <t>0.909 (100.000%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6999,17 +6999,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.909 (0.022%)</t>
+          <t>0.909 (100.022%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.909 (0.011%)</t>
+          <t>0.909 (-0.011%)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.005 (0.55%)</t>
+          <t>1.817 (199.94%)</t>
         </is>
       </c>
     </row>
@@ -7034,42 +7034,42 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.909 (0.000%)</t>
+          <t>0.909 (100.000%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.908 (-0.121%)</t>
+          <t>0.908 (99.879%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.910 (0.044%)</t>
+          <t>0.910 (0.165%)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.909 (0.011%)</t>
+          <t>0.909 (100.011%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.908 (-0.099%)</t>
+          <t>0.908 (-0.110%)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.909 (-0.066%)</t>
+          <t>0.909 (99.934%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.909 (0.011%)</t>
+          <t>0.909 (0.077%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.002 (0.27%)</t>
+          <t>1.818 (199.91%)</t>
         </is>
       </c>
     </row>
@@ -7094,42 +7094,42 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.960 (1.803%)</t>
+          <t>0.960 (101.803%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.937 (-0.594%)</t>
+          <t>0.937 (99.406%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.953 (1.018%)</t>
+          <t>0.953 (1.612%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.942 (-0.127%)</t>
+          <t>0.942 (99.873%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.942 (-0.127%)</t>
+          <t>0.942 (0.000%)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.933 (-1.007%)</t>
+          <t>0.933 (98.993%)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.943 (-0.032%)</t>
+          <t>0.943 (0.976%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.030 (3.15%)</t>
+          <t>1.887 (200.06%)</t>
         </is>
       </c>
     </row>
@@ -7265,7 +7265,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.009 (0.91%)</t>
+          <t>0.009 (0.89%)</t>
         </is>
       </c>
     </row>
@@ -7325,7 +7325,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.008 (0.88%)</t>
+          <t>0.007 (0.71%)</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.005 (0.49%)</t>
+          <t>0.004 (0.39%)</t>
         </is>
       </c>
     </row>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -7505,7 +7505,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.000 (0.03%)</t>
         </is>
       </c>
     </row>
@@ -7685,7 +7685,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -7745,7 +7745,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.004 (0.40%)</t>
+          <t>0.004 (0.35%)</t>
         </is>
       </c>
     </row>
@@ -7805,7 +7805,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.008 (0.86%)</t>
+          <t>0.007 (0.77%)</t>
         </is>
       </c>
     </row>
@@ -7865,7 +7865,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.006 (0.63%)</t>
+          <t>0.006 (0.59%)</t>
         </is>
       </c>
     </row>
@@ -7925,7 +7925,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.007 (0.74%)</t>
+          <t>0.006 (0.59%)</t>
         </is>
       </c>
     </row>
@@ -7985,7 +7985,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.002 (0.26%)</t>
+          <t>0.002 (0.24%)</t>
         </is>
       </c>
     </row>
@@ -8165,7 +8165,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -8225,7 +8225,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.011 (1.12%)</t>
+          <t>0.011 (1.07%)</t>
         </is>
       </c>
     </row>
@@ -8345,7 +8345,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.007 (0.72%)</t>
+          <t>0.007 (0.70%)</t>
         </is>
       </c>
     </row>
@@ -8405,7 +8405,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.003 (0.32%)</t>
+          <t>0.003 (0.31%)</t>
         </is>
       </c>
     </row>
@@ -8465,7 +8465,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.003 (0.33%)</t>
+          <t>0.003 (0.30%)</t>
         </is>
       </c>
     </row>
@@ -8525,7 +8525,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.003 (0.26%)</t>
+          <t>0.002 (0.26%)</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>0.001 (0.14%)</t>
         </is>
       </c>
     </row>
@@ -8765,7 +8765,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8885,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.016 (1.74%)</t>
+          <t>0.016 (1.69%)</t>
         </is>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.003 (0.37%)</t>
+          <t>0.003 (0.32%)</t>
         </is>
       </c>
     </row>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.005 (0.54%)</t>
+          <t>0.004 (0.46%)</t>
         </is>
       </c>
     </row>
@@ -9305,7 +9305,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.009 (0.89%)</t>
+          <t>0.008 (0.87%)</t>
         </is>
       </c>
     </row>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.079 (8.03%)</t>
+          <t>0.079 (8.00%)</t>
         </is>
       </c>
     </row>
@@ -9466,42 +9466,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.848 (0.012%)</t>
+          <t>0.848 (100.012%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.860 (1.427%)</t>
+          <t>0.860 (101.427%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.830 (-2.146%)</t>
+          <t>0.830 (-3.574%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.848 (-0.035%)</t>
+          <t>0.848 (99.965%)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.844 (-0.519%)</t>
+          <t>0.844 (-0.484%)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.848 (0.035%)</t>
+          <t>0.848 (100.035%)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.848 (-0.047%)</t>
+          <t>0.848 (-0.083%)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.023 (2.66%)</t>
+          <t>1.702 (200.72%)</t>
         </is>
       </c>
     </row>
@@ -9526,42 +9526,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.865 (-0.791%)</t>
+          <t>0.865 (99.209%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.887 (1.778%)</t>
+          <t>0.887 (101.778%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.851 (-2.374%)</t>
+          <t>0.851 (-4.151%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.872 (-0.023%)</t>
+          <t>0.872 (99.977%)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.872 (-0.057%)</t>
+          <t>0.872 (-0.034%)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.872 (0.023%)</t>
+          <t>0.872 (100.023%)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.872 (-0.011%)</t>
+          <t>0.872 (-0.034%)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.027 (3.08%)</t>
+          <t>1.748 (200.50%)</t>
         </is>
       </c>
     </row>
@@ -9586,42 +9586,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.888 (-0.627%)</t>
+          <t>0.888 (99.373%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.907 (1.522%)</t>
+          <t>0.907 (101.522%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.878 (-1.713%)</t>
+          <t>0.878 (-3.235%)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.893 (-0.011%)</t>
+          <t>0.893 (99.989%)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.893 (0.011%)</t>
+          <t>0.893 (0.022%)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.893 (-0.011%)</t>
+          <t>0.893 (99.989%)</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.893 (0.011%)</t>
+          <t>0.893 (0.022%)</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.021 (2.38%)</t>
+          <t>1.791 (200.44%)</t>
         </is>
       </c>
     </row>
@@ -9646,42 +9646,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>0.918 (99.989%)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.928 (101.057%)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.914 (-1.514%)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.918 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>0.918 (-0.011%)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.928 (1.057%)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.914 (-0.458%)</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.918 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.918 (-0.011%)</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.918 (-0.022%)</t>
+          <t>0.918 (99.978%)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.918 (0.011%)</t>
+          <t>0.918 (0.033%)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.011 (1.15%)</t>
+          <t>1.841 (200.51%)</t>
         </is>
       </c>
     </row>
@@ -9706,42 +9706,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.952 (-0.042%)</t>
+          <t>0.952 (99.958%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.953 (0.105%)</t>
+          <t>0.953 (100.105%)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.952 (-0.042%)</t>
+          <t>0.952 (-0.147%)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.952 (-0.011%)</t>
+          <t>0.952 (99.989%)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.952 (0.000%)</t>
+          <t>0.952 (0.011%)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.952 (0.011%)</t>
+          <t>0.952 (100.011%)</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.952 (-0.011%)</t>
+          <t>0.952 (-0.021%)</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>1.905 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -9766,42 +9766,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.972 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.972 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.972 (-0.041%)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.972 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>0.972 (-0.010%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.972 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.972 (100.021%)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>0.972 (-0.031%)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.972 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.972 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.972 (0.021%)</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0.972 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.944 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9826,42 +9826,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.974 (0.000%)</t>
+          <t>0.974 (100.000%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.975 (0.010%)</t>
+          <t>0.975 (100.010%)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.974 (0.000%)</t>
+          <t>0.974 (-0.010%)</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.974 (-0.010%)</t>
+          <t>0.974 (99.990%)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.975 (0.021%)</t>
+          <t>0.975 (0.031%)</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.975 (0.010%)</t>
+          <t>0.975 (100.010%)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.974 (-0.010%)</t>
+          <t>0.974 (-0.021%)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.949 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9886,12 +9886,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.974 (0.000%)</t>
+          <t>0.974 (100.000%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.974 (0.000%)</t>
+          <t>0.974 (100.000%)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -9901,7 +9901,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.974 (0.000%)</t>
+          <t>0.974 (100.000%)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -9911,17 +9911,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.974 (0.010%)</t>
+          <t>0.974 (100.010%)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.974 (0.000%)</t>
+          <t>0.974 (-0.010%)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.948 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -9946,42 +9946,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.973 (-0.103%)</t>
+          <t>0.973 (99.897%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.974 (0.010%)</t>
+          <t>0.974 (100.010%)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.974 (-0.010%)</t>
+          <t>0.974 (-0.021%)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.975 (0.154%)</t>
+          <t>0.975 (100.154%)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.973 (-0.031%)</t>
+          <t>0.973 (-0.185%)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.976 (0.205%)</t>
+          <t>0.976 (100.205%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.974 (-0.010%)</t>
+          <t>0.974 (-0.216%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.004 (0.44%)</t>
+          <t>1.949 (200.13%)</t>
         </is>
       </c>
     </row>
@@ -10006,42 +10006,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.859 (-0.012%)</t>
+          <t>0.859 (99.988%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.867 (0.966%)</t>
+          <t>0.867 (100.966%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.850 (-1.036%)</t>
+          <t>0.850 (-2.003%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.859 (-0.035%)</t>
+          <t>0.859 (99.965%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.863 (0.442%)</t>
+          <t>0.863 (0.477%)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.858 (-0.128%)</t>
+          <t>0.858 (99.872%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.859 (-0.012%)</t>
+          <t>0.859 (0.116%)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.013 (1.57%)</t>
+          <t>1.721 (200.40%)</t>
         </is>
       </c>
     </row>
@@ -10066,42 +10066,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.884 (-0.079%)</t>
+          <t>0.884 (99.921%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.896 (1.288%)</t>
+          <t>0.896 (101.288%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.870 (-1.639%)</t>
+          <t>0.870 (-2.927%)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
+          <t>0.885 (99.977%)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>0.886 (0.124%)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.885 (100.023%)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>0.885 (-0.023%)</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>0.886 (0.102%)</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.885 (0.023%)</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0.885 (0.000%)</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.019 (2.10%)</t>
+          <t>1.775 (200.61%)</t>
         </is>
       </c>
     </row>
@@ -10126,42 +10126,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.899 (-0.089%)</t>
+          <t>0.899 (99.911%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.912 (1.412%)</t>
+          <t>0.912 (101.412%)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.886 (-1.478%)</t>
+          <t>0.886 (-2.890%)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.899 (-0.022%)</t>
+          <t>0.899 (99.978%)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.899 (-0.033%)</t>
+          <t>0.899 (-0.011%)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.900 (0.033%)</t>
+          <t>0.900 (100.033%)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.900 (0.022%)</t>
+          <t>0.900 (-0.011%)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.018 (2.06%)</t>
+          <t>1.805 (200.67%)</t>
         </is>
       </c>
     </row>
@@ -10186,22 +10186,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.918 (0.011%)</t>
+          <t>0.918 (100.011%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.929 (1.198%)</t>
+          <t>0.929 (101.198%)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.914 (-0.414%)</t>
+          <t>0.914 (-1.612%)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.918 (0.000%)</t>
+          <t>0.918 (100.000%)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -10211,17 +10211,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.918 (-0.033%)</t>
+          <t>0.918 (99.967%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.918 (0.033%)</t>
+          <t>0.918 (0.065%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.012 (1.27%)</t>
+          <t>1.841 (200.59%)</t>
         </is>
       </c>
     </row>
@@ -10246,42 +10246,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.950 (-0.042%)</t>
+          <t>0.950 (99.958%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.952 (0.189%)</t>
+          <t>0.952 (100.189%)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.949 (-0.053%)</t>
+          <t>0.949 (-0.242%)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.950 (-0.011%)</t>
+          <t>0.950 (99.989%)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.950 (0.000%)</t>
+          <t>0.950 (0.011%)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.950 (0.021%)</t>
+          <t>0.950 (100.021%)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.950 (0.000%)</t>
+          <t>0.950 (-0.021%)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.002 (0.21%)</t>
+          <t>1.901 (200.08%)</t>
         </is>
       </c>
     </row>
@@ -10306,42 +10306,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.973 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.974 (100.031%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.973 (-0.041%)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.973 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>0.973 (0.000%)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.974 (0.031%)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.973 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.973 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.973 (0.000%)</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.974 (0.031%)</t>
+          <t>0.974 (100.031%)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.973 (-0.010%)</t>
+          <t>0.973 (-0.041%)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.947 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -10366,22 +10366,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.975 (0.000%)</t>
+          <t>0.975 (100.000%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.975 (0.031%)</t>
+          <t>0.975 (100.031%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.975 (-0.010%)</t>
+          <t>0.975 (-0.041%)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.975 (0.000%)</t>
+          <t>0.975 (100.000%)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -10391,17 +10391,17 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.975 (0.041%)</t>
+          <t>0.975 (100.041%)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.975 (0.000%)</t>
+          <t>0.975 (-0.041%)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.950 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -10426,42 +10426,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>0.973 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.973 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.974 (0.041%)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.973 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>0.973 (0.000%)</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.973 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.974 (0.031%)</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0.973 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.973 (0.000%)</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.974 (0.031%)</t>
+          <t>0.974 (100.031%)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.974 (0.010%)</t>
+          <t>0.974 (-0.021%)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>1.947 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -10486,42 +10486,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.959 (0.010%)</t>
+          <t>0.959 (100.010%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.958 (-0.021%)</t>
+          <t>0.958 (99.979%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.958 (-0.052%)</t>
+          <t>0.958 (-0.031%)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.958 (-0.052%)</t>
+          <t>0.958 (99.948%)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.960 (0.125%)</t>
+          <t>0.960 (0.177%)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.957 (-0.198%)</t>
+          <t>0.957 (99.802%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.959 (-0.010%)</t>
+          <t>0.959 (0.188%)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.009 (0.90%)</t>
+          <t>1.916 (199.87%)</t>
         </is>
       </c>
     </row>
@@ -10546,42 +10546,42 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.857 (0.058%)</t>
+          <t>0.857 (100.058%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.862 (0.677%)</t>
+          <t>0.862 (100.677%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.850 (-0.736%)</t>
+          <t>0.850 (-1.413%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.857 (0.012%)</t>
+          <t>0.857 (100.012%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
+          <t>0.856 (-0.105%)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.857 (100.082%)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
           <t>0.856 (-0.093%)</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>0.857 (0.082%)</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0.856 (-0.012%)</t>
-        </is>
-      </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.009 (1.04%)</t>
+          <t>1.717 (200.42%)</t>
         </is>
       </c>
     </row>
@@ -10606,42 +10606,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.882 (-0.113%)</t>
+          <t>0.882 (99.887%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.891 (0.929%)</t>
+          <t>0.891 (100.929%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.871 (-1.314%)</t>
+          <t>0.871 (-2.243%)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.883 (-0.011%)</t>
+          <t>0.883 (99.989%)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.882 (-0.079%)</t>
+          <t>0.882 (-0.068%)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.883 (0.057%)</t>
+          <t>0.883 (100.057%)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.883 (0.011%)</t>
+          <t>0.883 (-0.045%)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.014 (1.62%)</t>
+          <t>1.770 (200.43%)</t>
         </is>
       </c>
     </row>
@@ -10666,42 +10666,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.901 (-0.055%)</t>
+          <t>0.901 (99.945%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.910 (0.976%)</t>
+          <t>0.910 (100.976%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.891 (-1.098%)</t>
+          <t>0.891 (-2.075%)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.901 (-0.022%)</t>
+          <t>0.901 (99.978%)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.901 (0.022%)</t>
+          <t>0.901 (0.044%)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.901 (0.011%)</t>
+          <t>0.901 (100.011%)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.901 (-0.022%)</t>
+          <t>0.901 (-0.033%)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.013 (1.47%)</t>
+          <t>1.807 (200.46%)</t>
         </is>
       </c>
     </row>
@@ -10726,42 +10726,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.919 (0.000%)</t>
+          <t>0.919 (100.000%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.926 (0.849%)</t>
+          <t>0.926 (100.849%)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.916 (-0.316%)</t>
+          <t>0.916 (-1.165%)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.919 (-0.011%)</t>
+          <t>0.919 (99.989%)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.919 (0.022%)</t>
+          <t>0.919 (0.033%)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.919 (0.022%)</t>
+          <t>0.919 (100.022%)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.919 (0.000%)</t>
+          <t>0.919 (-0.022%)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.008 (0.91%)</t>
+          <t>1.841 (200.43%)</t>
         </is>
       </c>
     </row>
@@ -10786,22 +10786,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.943 (-0.053%)</t>
+          <t>0.943 (99.947%)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.944 (0.117%)</t>
+          <t>0.944 (100.117%)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.943 (-0.053%)</t>
+          <t>0.943 (-0.170%)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.943 (0.000%)</t>
+          <t>0.943 (100.000%)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -10811,17 +10811,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.943 (0.021%)</t>
+          <t>0.943 (100.021%)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.943 (0.000%)</t>
+          <t>0.943 (-0.021%)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>1.887 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -10846,42 +10846,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>0.961 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.962 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.961 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.961 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>0.961 (0.000%)</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.962 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.961 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.961 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.961 (0.000%)</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.962 (0.042%)</t>
+          <t>0.962 (100.042%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.961 (-0.010%)</t>
+          <t>0.961 (-0.052%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>1.923 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -10906,22 +10906,22 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (100.000%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.964 (0.052%)</t>
+          <t>0.964 (100.052%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (-0.052%)</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (100.000%)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -10931,17 +10931,17 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.964 (0.031%)</t>
+          <t>0.964 (100.031%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (-0.031%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.927 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -10966,22 +10966,22 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.962 (0.000%)</t>
+          <t>0.962 (100.000%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.962 (-0.010%)</t>
+          <t>0.962 (99.990%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.963 (0.042%)</t>
+          <t>0.963 (0.052%)</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.962 (0.000%)</t>
+          <t>0.962 (100.000%)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -10991,17 +10991,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.963 (0.031%)</t>
+          <t>0.963 (100.031%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.962 (-0.010%)</t>
+          <t>0.962 (-0.042%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>1.925 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -11026,22 +11026,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.960 (-0.714%)</t>
+          <t>0.960 (99.286%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.968 (0.103%)</t>
+          <t>0.968 (100.103%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.967 (0.062%)</t>
+          <t>0.967 (-0.041%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.967 (0.000%)</t>
+          <t>0.967 (100.000%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -11051,17 +11051,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.966 (-0.052%)</t>
+          <t>0.966 (99.948%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.967 (0.052%)</t>
+          <t>0.967 (0.103%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.009 (0.95%)</t>
+          <t>1.930 (199.67%)</t>
         </is>
       </c>
     </row>
@@ -11086,22 +11086,22 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.797 (0.075%)</t>
+          <t>0.797 (100.075%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.800 (0.377%)</t>
+          <t>0.800 (100.377%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.793 (-0.427%)</t>
+          <t>0.793 (-0.803%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.797 (0.000%)</t>
+          <t>0.797 (100.000%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -11111,17 +11111,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.799 (0.251%)</t>
+          <t>0.799 (100.251%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.796 (-0.050%)</t>
+          <t>0.796 (-0.301%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.006 (0.81%)</t>
+          <t>1.596 (200.35%)</t>
         </is>
       </c>
     </row>
@@ -11146,42 +11146,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.817 (-0.135%)</t>
+          <t>0.817 (99.865%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.824 (0.697%)</t>
+          <t>0.824 (100.697%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.812 (-0.734%)</t>
+          <t>0.812 (-1.431%)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.818 (0.012%)</t>
+          <t>0.818 (100.012%)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.817 (-0.049%)</t>
+          <t>0.817 (-0.061%)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.820 (0.269%)</t>
+          <t>0.820 (100.269%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.817 (-0.061%)</t>
+          <t>0.817 (-0.330%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.009 (1.07%)</t>
+          <t>1.639 (200.42%)</t>
         </is>
       </c>
     </row>
@@ -11206,22 +11206,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.837 (-0.167%)</t>
+          <t>0.837 (99.833%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.843 (0.560%)</t>
+          <t>0.843 (100.560%)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.833 (-0.668%)</t>
+          <t>0.833 (-1.228%)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.839 (0.000%)</t>
+          <t>0.839 (100.000%)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -11231,17 +11231,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.840 (0.143%)</t>
+          <t>0.840 (100.143%)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.838 (-0.024%)</t>
+          <t>0.838 (-0.167%)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.008 (0.93%)</t>
+          <t>1.679 (200.27%)</t>
         </is>
       </c>
     </row>
@@ -11266,22 +11266,22 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.862 (-0.220%)</t>
+          <t>0.862 (99.780%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.865 (0.185%)</t>
+          <t>0.865 (100.185%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.861 (-0.278%)</t>
+          <t>0.861 (-0.463%)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.864 (0.000%)</t>
+          <t>0.864 (100.000%)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -11291,17 +11291,17 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.865 (0.104%)</t>
+          <t>0.865 (100.104%)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.864 (-0.012%)</t>
+          <t>0.864 (-0.116%)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.006 (0.72%)</t>
+          <t>1.728 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -11326,42 +11326,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.883 (-0.091%)</t>
+          <t>0.883 (99.909%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.885 (0.181%)</t>
+          <t>0.885 (100.181%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
+          <t>0.883 (-0.226%)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0.883 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>0.883 (-0.045%)</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>0.883 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>0.884 (100.034%)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>0.883 (-0.057%)</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>0.884 (0.034%)</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0.883 (-0.023%)</t>
-        </is>
-      </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.23%)</t>
+          <t>1.768 (200.06%)</t>
         </is>
       </c>
     </row>
@@ -11386,42 +11386,42 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>0.899 (99.944%)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.899 (99.978%)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.899 (0.000%)</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.899 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>0.899 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0.899 (100.033%)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>0.899 (-0.056%)</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.899 (-0.022%)</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.899 (-0.022%)</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0.899 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.899 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>0.899 (0.033%)</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>0.899 (-0.022%)</t>
-        </is>
-      </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>1.798 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -11446,42 +11446,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
+          <t>0.900 (100.022%)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.900 (100.011%)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.906 (0.689%)</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.900 (100.011%)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>0.900 (-0.011%)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>0.900 (99.989%)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
           <t>0.900 (0.022%)</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.900 (0.011%)</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.906 (0.700%)</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0.900 (0.011%)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0.900 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>0.900 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0.900 (0.011%)</t>
-        </is>
-      </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.006 (0.72%)</t>
+          <t>1.801 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -11506,22 +11506,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.906 (0.033%)</t>
+          <t>0.906 (100.033%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.904 (-0.199%)</t>
+          <t>0.904 (99.801%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.907 (0.132%)</t>
+          <t>0.907 (0.331%)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.906 (0.000%)</t>
+          <t>0.906 (100.000%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -11531,17 +11531,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.907 (0.077%)</t>
+          <t>0.907 (100.077%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.906 (-0.022%)</t>
+          <t>0.906 (-0.099%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.003 (0.37%)</t>
+          <t>1.812 (199.96%)</t>
         </is>
       </c>
     </row>
@@ -11566,42 +11566,42 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.947 (0.488%)</t>
+          <t>0.947 (100.488%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.955 (1.294%)</t>
+          <t>0.955 (101.294%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.940 (-0.223%)</t>
+          <t>0.940 (-1.517%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.943 (0.011%)</t>
+          <t>0.943 (100.011%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.943 (0.095%)</t>
+          <t>0.943 (0.085%)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.945 (0.308%)</t>
+          <t>0.945 (100.308%)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.948 (0.584%)</t>
+          <t>0.948 (0.276%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.029 (3.05%)</t>
+          <t>1.895 (201.07%)</t>
         </is>
       </c>
     </row>
@@ -11737,7 +11737,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.006 (0.65%)</t>
+          <t>0.006 (0.60%)</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.009 (0.87%)</t>
+          <t>0.009 (0.86%)</t>
         </is>
       </c>
     </row>
@@ -11857,7 +11857,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.007 (0.70%)</t>
+          <t>0.007 (0.68%)</t>
         </is>
       </c>
     </row>
@@ -11917,7 +11917,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -12157,7 +12157,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.07%)</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.007 (0.69%)</t>
+          <t>0.005 (0.55%)</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.009 (0.90%)</t>
+          <t>0.009 (0.89%)</t>
         </is>
       </c>
     </row>
@@ -12337,7 +12337,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.006 (0.58%)</t>
+          <t>0.006 (0.57%)</t>
         </is>
       </c>
     </row>
@@ -12397,7 +12397,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.006 (0.57%)</t>
+          <t>0.005 (0.46%)</t>
         </is>
       </c>
     </row>
@@ -12457,7 +12457,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -12517,7 +12517,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -12637,7 +12637,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -12697,7 +12697,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.013 (1.32%)</t>
+          <t>0.013 (1.31%)</t>
         </is>
       </c>
     </row>
@@ -12817,7 +12817,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.005 (0.53%)</t>
+          <t>0.004 (0.43%)</t>
         </is>
       </c>
     </row>
@@ -12877,7 +12877,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.003 (0.29%)</t>
+          <t>0.003 (0.27%)</t>
         </is>
       </c>
     </row>
@@ -12937,7 +12937,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.002 (0.23%)</t>
+          <t>0.002 (0.22%)</t>
         </is>
       </c>
     </row>
@@ -12997,7 +12997,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -13237,7 +13237,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -13297,7 +13297,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.011 (1.14%)</t>
+          <t>0.011 (1.13%)</t>
         </is>
       </c>
     </row>
@@ -13357,7 +13357,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.012 (1.17%)</t>
+          <t>0.011 (1.08%)</t>
         </is>
       </c>
     </row>
@@ -13417,7 +13417,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.006 (0.58%)</t>
+          <t>0.006 (0.55%)</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.007 (0.68%)</t>
+          <t>0.007 (0.67%)</t>
         </is>
       </c>
     </row>
@@ -13657,7 +13657,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>0.001 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -13777,7 +13777,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.004 (0.41%)</t>
+          <t>0.004 (0.40%)</t>
         </is>
       </c>
     </row>
@@ -13837,7 +13837,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.044 (4.76%)</t>
+          <t>0.043 (4.60%)</t>
         </is>
       </c>
     </row>
@@ -13973,7 +13973,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.025 (2.96%)</t>
+          <t>0.021 (2.56%)</t>
         </is>
       </c>
     </row>
@@ -14033,7 +14033,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.027 (3.13%)</t>
+          <t>0.021 (2.40%)</t>
         </is>
       </c>
     </row>
@@ -14093,7 +14093,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.022 (2.54%)</t>
+          <t>0.016 (1.86%)</t>
         </is>
       </c>
     </row>
@@ -14153,7 +14153,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.010 (1.12%)</t>
+          <t>0.010 (1.08%)</t>
         </is>
       </c>
     </row>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -14393,7 +14393,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -14453,7 +14453,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.004 (0.39%)</t>
+          <t>0.004 (0.38%)</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.017 (2.04%)</t>
+          <t>0.013 (1.53%)</t>
         </is>
       </c>
     </row>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.021 (2.37%)</t>
+          <t>0.017 (1.98%)</t>
         </is>
       </c>
     </row>
@@ -14633,7 +14633,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.023 (2.56%)</t>
+          <t>0.017 (1.90%)</t>
         </is>
       </c>
     </row>
@@ -14693,7 +14693,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.011 (1.26%)</t>
+          <t>0.011 (1.24%)</t>
         </is>
       </c>
     </row>
@@ -14933,7 +14933,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -14993,7 +14993,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.011 (1.11%)</t>
+          <t>0.010 (1.08%)</t>
         </is>
       </c>
     </row>
@@ -15053,7 +15053,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.010 (1.16%)</t>
+          <t>0.009 (1.03%)</t>
         </is>
       </c>
     </row>
@@ -15113,7 +15113,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.015 (1.70%)</t>
+          <t>0.012 (1.40%)</t>
         </is>
       </c>
     </row>
@@ -15173,7 +15173,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.015 (1.71%)</t>
+          <t>0.011 (1.28%)</t>
         </is>
       </c>
     </row>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.009 (1.01%)</t>
+          <t>0.009 (0.95%)</t>
         </is>
       </c>
     </row>
@@ -15413,7 +15413,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>0.002 (0.19%)</t>
         </is>
       </c>
     </row>
@@ -15473,7 +15473,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -15533,7 +15533,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.012 (1.28%)</t>
+          <t>0.012 (1.26%)</t>
         </is>
       </c>
     </row>
@@ -15593,7 +15593,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.010 (1.33%)</t>
+          <t>0.010 (1.30%)</t>
         </is>
       </c>
     </row>
@@ -15653,7 +15653,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.010 (1.24%)</t>
+          <t>0.009 (1.07%)</t>
         </is>
       </c>
     </row>
@@ -15713,7 +15713,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.010 (1.27%)</t>
+          <t>0.008 (0.99%)</t>
         </is>
       </c>
     </row>
@@ -15773,7 +15773,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.004 (0.48%)</t>
+          <t>0.004 (0.45%)</t>
         </is>
       </c>
     </row>
@@ -15833,7 +15833,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>0.002 (0.21%)</t>
         </is>
       </c>
     </row>
@@ -15953,7 +15953,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.007 (0.85%)</t>
+          <t>0.006 (0.67%)</t>
         </is>
       </c>
     </row>
@@ -16013,7 +16013,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.011 (1.21%)</t>
+          <t>0.011 (1.20%)</t>
         </is>
       </c>
     </row>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.029 (3.31%)</t>
+          <t>0.028 (3.23%)</t>
         </is>
       </c>
     </row>
@@ -16174,32 +16174,32 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.852 (-0.012%)</t>
+          <t>0.852 (99.988%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.863 (1.268%)</t>
+          <t>0.863 (101.268%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.826 (-2.994%)</t>
+          <t>0.826 (-4.262%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.851 (-0.082%)</t>
+          <t>0.851 (99.918%)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.849 (-0.340%)</t>
+          <t>0.849 (-0.258%)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.852 (0.000%)</t>
+          <t>0.852 (100.000%)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -16209,7 +16209,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.028 (3.29%)</t>
+          <t>1.708 (200.59%)</t>
         </is>
       </c>
     </row>
@@ -16234,22 +16234,22 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.878 (-0.011%)</t>
+          <t>0.878 (99.989%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.892 (1.675%)</t>
+          <t>0.892 (101.675%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.860 (-2.005%)</t>
+          <t>0.860 (-3.680%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.878 (0.000%)</t>
+          <t>0.878 (100.000%)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -16259,17 +16259,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.878 (-0.023%)</t>
+          <t>0.878 (99.977%)</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.878 (-0.011%)</t>
+          <t>0.878 (0.011%)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.023 (2.62%)</t>
+          <t>1.763 (200.83%)</t>
         </is>
       </c>
     </row>
@@ -16294,42 +16294,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.899 (-0.056%)</t>
+          <t>0.899 (99.944%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.913 (1.467%)</t>
+          <t>0.913 (101.467%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.885 (-1.678%)</t>
+          <t>0.885 (-3.144%)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.900 (-0.011%)</t>
+          <t>0.900 (99.989%)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.900 (-0.011%)</t>
+          <t>0.900 (0.000%)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>0.900 (100.011%)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>0.900 (0.011%)</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.900 (0.022%)</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.020 (2.23%)</t>
+          <t>1.806 (200.71%)</t>
         </is>
       </c>
     </row>
@@ -16354,42 +16354,42 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.926 (0.000%)</t>
+          <t>0.926 (100.000%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.935 (0.994%)</t>
+          <t>0.935 (100.994%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.921 (-0.443%)</t>
+          <t>0.921 (-1.437%)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.925 (-0.011%)</t>
+          <t>0.925 (99.989%)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.926 (0.032%)</t>
+          <t>0.926 (0.043%)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.925 (-0.022%)</t>
+          <t>0.925 (99.978%)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.926 (0.000%)</t>
+          <t>0.926 (0.022%)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.010 (1.09%)</t>
+          <t>1.856 (200.48%)</t>
         </is>
       </c>
     </row>
@@ -16414,42 +16414,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.959 (-0.021%)</t>
+          <t>0.959 (99.979%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.960 (0.094%)</t>
+          <t>0.960 (100.094%)</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.958 (-0.094%)</t>
+          <t>0.958 (-0.188%)</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>0.959 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.959 (0.010%)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.959 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>0.959 (-0.010%)</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.959 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.959 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.959 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>1.919 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -16474,42 +16474,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.978 (0.000%)</t>
+          <t>0.978 (100.000%)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.979 (0.020%)</t>
+          <t>0.979 (100.020%)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.978 (0.000%)</t>
+          <t>0.978 (-0.020%)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.979 (0.010%)</t>
+          <t>0.979 (100.010%)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.979 (0.010%)</t>
+          <t>0.979 (0.000%)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.979 (0.020%)</t>
+          <t>0.979 (100.020%)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.978 (0.000%)</t>
+          <t>0.978 (-0.020%)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.03%)</t>
+          <t>1.957 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -16534,22 +16534,22 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.981 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.981 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>0.981 (0.000%)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.981 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.981 (0.010%)</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.981 (0.000%)</t>
+          <t>0.981 (100.000%)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -16559,17 +16559,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.981 (0.020%)</t>
+          <t>0.981 (100.020%)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.981 (0.000%)</t>
+          <t>0.981 (-0.020%)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.962 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -16594,42 +16594,42 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>0.981 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.982 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.982 (0.000%)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0.981 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>0.981 (0.000%)</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.982 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.982 (0.010%)</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.981 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.981 (0.000%)</t>
-        </is>
-      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.982 (0.010%)</t>
+          <t>0.982 (100.010%)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.981 (0.000%)</t>
+          <t>0.981 (-0.010%)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.963 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -16654,42 +16654,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.982 (-0.041%)</t>
+          <t>0.982 (99.959%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.982 (0.031%)</t>
+          <t>0.982 (100.031%)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.982 (0.031%)</t>
+          <t>0.982 (0.000%)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.983 (0.122%)</t>
+          <t>0.983 (100.122%)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.982 (-0.041%)</t>
+          <t>0.982 (-0.163%)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.982 (-0.010%)</t>
+          <t>0.982 (99.990%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.982 (-0.010%)</t>
+          <t>0.982 (0.000%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.003 (0.29%)</t>
+          <t>1.965 (200.05%)</t>
         </is>
       </c>
     </row>
@@ -16714,42 +16714,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.858 (-0.070%)</t>
+          <t>0.858 (99.930%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.866 (0.921%)</t>
+          <t>0.866 (100.921%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.850 (-0.956%)</t>
+          <t>0.850 (-1.876%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.858 (-0.012%)</t>
+          <t>0.858 (99.988%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.859 (0.117%)</t>
+          <t>0.859 (0.128%)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.858 (-0.058%)</t>
+          <t>0.858 (99.942%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.858 (0.000%)</t>
+          <t>0.858 (0.058%)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.012 (1.42%)</t>
+          <t>1.720 (200.39%)</t>
         </is>
       </c>
     </row>
@@ -16774,42 +16774,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.890 (0.000%)</t>
+          <t>0.890 (100.000%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.901 (1.134%)</t>
+          <t>0.901 (101.134%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.876 (-1.628%)</t>
+          <t>0.876 (-2.762%)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.890 (-0.045%)</t>
+          <t>0.890 (99.955%)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.893 (0.236%)</t>
+          <t>0.893 (0.281%)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.891 (0.034%)</t>
+          <t>0.891 (100.034%)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.890 (-0.056%)</t>
+          <t>0.890 (-0.090%)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.018 (2.01%)</t>
+          <t>1.786 (200.56%)</t>
         </is>
       </c>
     </row>
@@ -16834,42 +16834,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.904 (-0.110%)</t>
+          <t>0.904 (99.890%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.919 (1.502%)</t>
+          <t>0.919 (101.502%)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.890 (-1.668%)</t>
+          <t>0.890 (-3.170%)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.905 (-0.011%)</t>
+          <t>0.905 (99.989%)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.907 (0.188%)</t>
+          <t>0.907 (0.199%)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.905 (-0.033%)</t>
+          <t>0.905 (99.967%)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.906 (0.022%)</t>
+          <t>0.906 (0.055%)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.020 (2.26%)</t>
+          <t>1.817 (200.68%)</t>
         </is>
       </c>
     </row>
@@ -16894,42 +16894,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.921 (0.043%)</t>
+          <t>0.921 (100.043%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.932 (1.206%)</t>
+          <t>0.932 (101.206%)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.917 (-0.391%)</t>
+          <t>0.917 (-1.597%)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.920 (-0.043%)</t>
+          <t>0.920 (99.957%)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0.921 (0.109%)</t>
+          <t>0.921 (0.152%)</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.921 (0.022%)</t>
+          <t>0.921 (100.022%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.921 (0.011%)</t>
+          <t>0.921 (-0.011%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.012 (1.28%)</t>
+          <t>1.847 (200.62%)</t>
         </is>
       </c>
     </row>
@@ -16954,42 +16954,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>0.953 (99.979%)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.954 (100.136%)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.952 (-0.241%)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0.953 (99.990%)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>0.953 (-0.021%)</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.954 (0.136%)</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.952 (-0.105%)</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.953 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>0.953 (-0.031%)</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.953 (0.010%)</t>
+          <t>0.953 (100.010%)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.953 (-0.010%)</t>
+          <t>0.953 (-0.021%)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>1.907 (200.06%)</t>
         </is>
       </c>
     </row>
@@ -17014,22 +17014,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.976 (0.000%)</t>
+          <t>0.976 (100.000%)</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.976 (0.031%)</t>
+          <t>0.976 (100.031%)</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.976 (0.000%)</t>
+          <t>0.976 (-0.031%)</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>0.976 (0.000%)</t>
+          <t>0.976 (100.000%)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -17039,17 +17039,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.976 (0.021%)</t>
+          <t>0.976 (100.021%)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.976 (0.000%)</t>
+          <t>0.976 (-0.021%)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.951 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -17074,42 +17074,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.979 (0.000%)</t>
+          <t>0.979 (100.000%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.979 (0.010%)</t>
+          <t>0.979 (100.010%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
+          <t>0.979 (-0.020%)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>0.979 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0.978 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.979 (100.010%)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
           <t>0.979 (-0.010%)</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.979 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.978 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0.979 (0.010%)</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0.979 (0.000%)</t>
-        </is>
-      </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.958 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -17134,42 +17134,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0.976 (-0.010%)</t>
+          <t>0.976 (99.990%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.976 (-0.010%)</t>
+          <t>0.976 (99.990%)</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.977 (0.031%)</t>
+          <t>0.977 (0.041%)</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.976 (0.010%)</t>
+          <t>0.976 (100.010%)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0.976 (-0.031%)</t>
+          <t>0.976 (-0.041%)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.976 (0.010%)</t>
+          <t>0.976 (100.010%)</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.977 (0.020%)</t>
+          <t>0.977 (0.010%)</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.953 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -17194,42 +17194,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.975 (-0.041%)</t>
+          <t>0.975 (99.959%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.976 (0.010%)</t>
+          <t>0.976 (100.010%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.976 (0.092%)</t>
+          <t>0.976 (0.082%)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.975 (-0.082%)</t>
+          <t>0.975 (99.918%)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.980 (0.482%)</t>
+          <t>0.980 (0.564%)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.974 (-0.123%)</t>
+          <t>0.974 (99.877%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.974 (-0.164%)</t>
+          <t>0.974 (-0.041%)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.009 (0.93%)</t>
+          <t>1.950 (199.88%)</t>
         </is>
       </c>
     </row>
@@ -17254,32 +17254,32 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.860 (-0.174%)</t>
+          <t>0.860 (99.826%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.866 (0.488%)</t>
+          <t>0.866 (100.488%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.853 (-0.940%)</t>
+          <t>0.853 (-1.428%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.861 (-0.012%)</t>
+          <t>0.861 (99.988%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>0.859 (-0.221%)</t>
+          <t>0.859 (-0.209%)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.861 (0.000%)</t>
+          <t>0.861 (100.000%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -17289,7 +17289,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.010 (1.12%)</t>
+          <t>1.724 (200.15%)</t>
         </is>
       </c>
     </row>
@@ -17314,42 +17314,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>0.884 (99.989%)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.893 (100.973%)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.874 (-2.138%)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.884 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>0.884 (-0.011%)</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.893 (0.973%)</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.874 (-1.165%)</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.884 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>0.884 (-0.023%)</t>
-        </is>
-      </c>
       <c r="J21" t="inlineStr">
         <is>
+          <t>0.884 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
           <t>0.884 (0.000%)</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.884 (0.000%)</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.013 (1.53%)</t>
+          <t>1.772 (200.48%)</t>
         </is>
       </c>
     </row>
@@ -17374,42 +17374,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.901 (-0.044%)</t>
+          <t>0.901 (99.956%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.912 (1.076%)</t>
+          <t>0.912 (101.076%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.892 (-1.120%)</t>
+          <t>0.892 (-2.195%)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
+          <t>0.902 (99.978%)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0.903 (0.111%)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.902 (100.022%)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
           <t>0.902 (-0.022%)</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>0.903 (0.089%)</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0.902 (0.022%)</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0.902 (0.000%)</t>
-        </is>
-      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.014 (1.56%)</t>
+          <t>1.808 (200.52%)</t>
         </is>
       </c>
     </row>
@@ -17434,42 +17434,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0.921 (-0.033%)</t>
+          <t>0.921 (99.967%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.929 (0.825%)</t>
+          <t>0.929 (100.825%)</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.919 (-0.315%)</t>
+          <t>0.919 (-1.139%)</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>0.921 (99.989%)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>0.922 (0.011%)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.922 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>0.921 (-0.011%)</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.922 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>0.922 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0.921 (-0.011%)</t>
-        </is>
-      </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.008 (0.89%)</t>
+          <t>1.847 (200.39%)</t>
         </is>
       </c>
     </row>
@@ -17494,42 +17494,42 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.945 (-0.063%)</t>
+          <t>0.945 (99.937%)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.946 (0.106%)</t>
+          <t>0.946 (100.106%)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.945 (-0.063%)</t>
+          <t>0.945 (-0.169%)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.945 (-0.011%)</t>
+          <t>0.945 (99.989%)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0.945 (-0.011%)</t>
+          <t>0.945 (0.000%)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.946 (0.021%)</t>
+          <t>0.946 (100.021%)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.945 (-0.011%)</t>
+          <t>0.945 (-0.032%)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>1.891 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -17554,42 +17554,42 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
+          <t>0.963 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.963 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.963 (-0.021%)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0.963 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>0.963 (0.000%)</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.963 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.963 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.963 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.963 (0.000%)</t>
-        </is>
-      </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.963 (0.021%)</t>
+          <t>0.963 (100.021%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.963 (0.000%)</t>
+          <t>0.963 (-0.021%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.927 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -17614,42 +17614,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.966 (0.000%)</t>
+          <t>0.966 (100.000%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.967 (0.041%)</t>
+          <t>0.967 (100.041%)</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
+          <t>0.966 (-0.052%)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>0.966 (-0.010%)</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.966 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.967 (0.021%)</t>
+          <t>0.967 (100.021%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.966 (-0.010%)</t>
+          <t>0.966 (-0.031%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.933 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -17674,42 +17674,42 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.965 (99.969%)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.966 (0.052%)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>0.965 (0.000%)</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.965 (-0.031%)</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.966 (0.021%)</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>0.965 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>0.965 (0.000%)</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0.965 (0.000%)</t>
-        </is>
-      </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.930 (199.98%)</t>
         </is>
       </c>
     </row>
@@ -17734,22 +17734,22 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.960 (0.000%)</t>
+          <t>0.960 (100.000%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.960 (0.042%)</t>
+          <t>0.960 (100.042%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.961 (0.125%)</t>
+          <t>0.961 (0.083%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.960 (0.000%)</t>
+          <t>0.960 (100.000%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -17759,17 +17759,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.959 (-0.021%)</t>
+          <t>0.959 (99.979%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.960 (-0.010%)</t>
+          <t>0.960 (0.010%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.005 (0.53%)</t>
+          <t>1.919 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -17794,42 +17794,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.795 (-0.025%)</t>
+          <t>0.795 (99.975%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.798 (0.339%)</t>
+          <t>0.798 (100.339%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.791 (-0.490%)</t>
+          <t>0.791 (-0.830%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.795 (-0.025%)</t>
+          <t>0.795 (99.975%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.795 (0.000%)</t>
+          <t>0.795 (0.025%)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.795 (-0.038%)</t>
+          <t>0.795 (99.962%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.795 (-0.101%)</t>
+          <t>0.795 (-0.063%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.006 (0.78%)</t>
+          <t>1.592 (200.13%)</t>
         </is>
       </c>
     </row>
@@ -17854,42 +17854,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.825 (-0.097%)</t>
+          <t>0.825 (99.903%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.830 (0.533%)</t>
+          <t>0.830 (100.533%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.819 (-0.812%)</t>
+          <t>0.819 (-1.345%)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.825 (-0.036%)</t>
+          <t>0.825 (99.964%)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>0.828 (0.315%)</t>
+          <t>0.828 (0.351%)</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.827 (0.133%)</t>
+          <t>0.827 (100.133%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.825 (-0.061%)</t>
+          <t>0.825 (-0.194%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.009 (1.08%)</t>
+          <t>1.653 (200.27%)</t>
         </is>
       </c>
     </row>
@@ -17914,22 +17914,22 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.846 (-0.012%)</t>
+          <t>0.846 (99.988%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.851 (0.650%)</t>
+          <t>0.851 (100.650%)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.839 (-0.780%)</t>
+          <t>0.839 (-1.431%)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.846 (0.000%)</t>
+          <t>0.846 (100.000%)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -17939,17 +17939,17 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.846 (0.059%)</t>
+          <t>0.846 (100.059%)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.846 (-0.012%)</t>
+          <t>0.846 (-0.071%)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.009 (1.04%)</t>
+          <t>1.695 (200.35%)</t>
         </is>
       </c>
     </row>
@@ -17974,42 +17974,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.867 (0.035%)</t>
+          <t>0.867 (100.035%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.871 (0.508%)</t>
+          <t>0.871 (100.508%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.865 (-0.104%)</t>
+          <t>0.865 (-0.612%)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.866 (-0.012%)</t>
+          <t>0.866 (99.988%)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.867 (0.046%)</t>
+          <t>0.867 (0.058%)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.867 (0.046%)</t>
+          <t>0.867 (100.046%)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.866 (-0.012%)</t>
+          <t>0.866 (-0.058%)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.005 (0.53%)</t>
+          <t>1.735 (200.29%)</t>
         </is>
       </c>
     </row>
@@ -18034,42 +18034,42 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.886 (-0.045%)</t>
+          <t>0.886 (99.955%)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.888 (0.135%)</t>
+          <t>0.888 (100.135%)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.886 (-0.056%)</t>
+          <t>0.886 (-0.192%)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.887 (-0.011%)</t>
+          <t>0.887 (99.989%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0.887 (-0.034%)</t>
+          <t>0.887 (-0.023%)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.887 (0.068%)</t>
+          <t>0.887 (100.068%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.887 (-0.011%)</t>
+          <t>0.887 (-0.079%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>1.774 (200.07%)</t>
         </is>
       </c>
     </row>
@@ -18094,42 +18094,42 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>0.902 (100.011%)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.902 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.902 (-0.011%)</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>0.902 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
           <t>0.902 (0.011%)</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.902 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.902 (-0.011%)</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>0.902 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>0.902 (0.011%)</t>
-        </is>
-      </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.902 (0.033%)</t>
+          <t>0.902 (100.033%)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.902 (0.000%)</t>
+          <t>0.902 (-0.033%)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.805 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -18154,42 +18154,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.902 (0.000%)</t>
+          <t>0.902 (100.000%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.908 (0.587%)</t>
+          <t>0.908 (100.587%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
+          <t>0.902 (-0.598%)</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>0.902 (100.011%)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>0.902 (-0.011%)</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>0.902 (0.011%)</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>0.902 (0.000%)</t>
-        </is>
-      </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.902 (0.011%)</t>
+          <t>0.902 (100.011%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.902 (-0.011%)</t>
+          <t>0.902 (-0.022%)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.005 (0.61%)</t>
+          <t>1.808 (200.31%)</t>
         </is>
       </c>
     </row>
@@ -18214,42 +18214,42 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.908 (0.011%)</t>
+          <t>0.908 (100.011%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.906 (-0.143%)</t>
+          <t>0.906 (99.857%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.908 (0.066%)</t>
+          <t>0.908 (0.209%)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.907 (-0.011%)</t>
+          <t>0.907 (99.989%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>0.908 (0.066%)</t>
+          <t>0.908 (0.077%)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.908 (0.066%)</t>
+          <t>0.908 (100.066%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.908 (0.011%)</t>
+          <t>0.908 (-0.055%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.003 (0.30%)</t>
+          <t>1.815 (199.96%)</t>
         </is>
       </c>
     </row>
@@ -18274,42 +18274,42 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.893 (-2.383%)</t>
+          <t>0.893 (97.617%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.914 (-0.033%)</t>
+          <t>0.914 (99.967%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.908 (-0.765%)</t>
+          <t>0.908 (-0.732%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.915 (0.055%)</t>
+          <t>0.915 (100.055%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.905 (-1.028%)</t>
+          <t>0.905 (-1.082%)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.917 (0.295%)</t>
+          <t>0.917 (100.295%)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.919 (0.448%)</t>
+          <t>0.919 (0.153%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.035 (3.82%)</t>
+          <t>1.820 (199.00%)</t>
         </is>
       </c>
     </row>
@@ -18445,7 +18445,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.009 (0.90%)</t>
+          <t>0.008 (0.85%)</t>
         </is>
       </c>
     </row>
@@ -18505,7 +18505,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.006 (0.58%)</t>
+          <t>0.005 (0.48%)</t>
         </is>
       </c>
     </row>
@@ -18565,7 +18565,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.003 (0.35%)</t>
+          <t>0.003 (0.30%)</t>
         </is>
       </c>
     </row>
@@ -18625,7 +18625,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -18865,7 +18865,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -18985,7 +18985,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.010 (1.05%)</t>
+          <t>0.009 (0.96%)</t>
         </is>
       </c>
     </row>
@@ -19045,7 +19045,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.005 (0.55%)</t>
+          <t>0.005 (0.52%)</t>
         </is>
       </c>
     </row>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -19405,7 +19405,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>0.001 (0.13%)</t>
         </is>
       </c>
     </row>
@@ -19465,7 +19465,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.014 (1.43%)</t>
+          <t>0.014 (1.39%)</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.005 (0.56%)</t>
+          <t>0.005 (0.55%)</t>
         </is>
       </c>
     </row>
@@ -19585,7 +19585,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.004 (0.38%)</t>
+          <t>0.004 (0.37%)</t>
         </is>
       </c>
     </row>
@@ -19825,7 +19825,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -19885,7 +19885,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.002 (0.21%)</t>
+          <t>0.002 (0.19%)</t>
         </is>
       </c>
     </row>
@@ -19945,7 +19945,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.14%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -20005,7 +20005,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.013 (1.34%)</t>
+          <t>0.013 (1.33%)</t>
         </is>
       </c>
     </row>
@@ -20065,7 +20065,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.014 (1.48%)</t>
+          <t>0.013 (1.36%)</t>
         </is>
       </c>
     </row>
@@ -20125,7 +20125,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.005 (0.55%)</t>
+          <t>0.005 (0.54%)</t>
         </is>
       </c>
     </row>
@@ -20245,7 +20245,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.003 (0.30%)</t>
+          <t>0.003 (0.26%)</t>
         </is>
       </c>
     </row>
@@ -20305,7 +20305,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>0.002 (0.21%)</t>
         </is>
       </c>
     </row>
@@ -20365,7 +20365,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -20425,7 +20425,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.009 (0.93%)</t>
+          <t>0.007 (0.68%)</t>
         </is>
       </c>
     </row>
@@ -20485,7 +20485,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.012 (1.22%)</t>
+          <t>0.012 (1.21%)</t>
         </is>
       </c>
     </row>
@@ -20545,7 +20545,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.051 (5.46%)</t>
+          <t>0.051 (5.39%)</t>
         </is>
       </c>
     </row>
@@ -20681,7 +20681,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.020 (2.51%)</t>
+          <t>0.018 (2.21%)</t>
         </is>
       </c>
     </row>
@@ -20741,7 +20741,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.028 (3.32%)</t>
+          <t>0.022 (2.68%)</t>
         </is>
       </c>
     </row>
@@ -20801,7 +20801,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.025 (2.96%)</t>
+          <t>0.019 (2.25%)</t>
         </is>
       </c>
     </row>
@@ -20861,7 +20861,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.011 (1.28%)</t>
+          <t>0.011 (1.22%)</t>
         </is>
       </c>
     </row>
@@ -20921,7 +20921,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -20981,7 +20981,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -21101,7 +21101,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.002 (0.19%)</t>
+          <t>0.001 (0.14%)</t>
         </is>
       </c>
     </row>
@@ -21161,7 +21161,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.006 (0.61%)</t>
+          <t>0.005 (0.57%)</t>
         </is>
       </c>
     </row>
@@ -21221,7 +21221,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.015 (1.81%)</t>
+          <t>0.013 (1.62%)</t>
         </is>
       </c>
     </row>
@@ -21281,7 +21281,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.021 (2.53%)</t>
+          <t>0.017 (2.03%)</t>
         </is>
       </c>
     </row>
@@ -21341,7 +21341,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.025 (2.86%)</t>
+          <t>0.018 (2.14%)</t>
         </is>
       </c>
     </row>
@@ -21401,7 +21401,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.012 (1.41%)</t>
+          <t>0.011 (1.30%)</t>
         </is>
       </c>
     </row>
@@ -21521,7 +21521,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.001 (0.05%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -21581,7 +21581,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>0.001 (0.12%)</t>
         </is>
       </c>
     </row>
@@ -21641,7 +21641,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.002 (0.22%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -21701,7 +21701,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.009 (0.95%)</t>
+          <t>0.009 (0.94%)</t>
         </is>
       </c>
     </row>
@@ -21761,7 +21761,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.011 (1.31%)</t>
+          <t>0.011 (1.30%)</t>
         </is>
       </c>
     </row>
@@ -21821,7 +21821,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.012 (1.47%)</t>
+          <t>0.011 (1.27%)</t>
         </is>
       </c>
     </row>
@@ -21881,7 +21881,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.016 (1.87%)</t>
+          <t>0.013 (1.47%)</t>
         </is>
       </c>
     </row>
@@ -21941,7 +21941,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.011 (1.22%)</t>
+          <t>0.010 (1.09%)</t>
         </is>
       </c>
     </row>
@@ -22001,7 +22001,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.002 (0.17%)</t>
+          <t>0.001 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -22181,7 +22181,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.09%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -22241,7 +22241,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.005 (0.51%)</t>
+          <t>0.005 (0.50%)</t>
         </is>
       </c>
     </row>
@@ -22301,7 +22301,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.017 (2.18%)</t>
+          <t>0.016 (2.15%)</t>
         </is>
       </c>
     </row>
@@ -22361,7 +22361,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.010 (1.29%)</t>
+          <t>0.008 (1.06%)</t>
         </is>
       </c>
     </row>
@@ -22421,7 +22421,7 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.009 (1.17%)</t>
+          <t>0.007 (0.85%)</t>
         </is>
       </c>
     </row>
@@ -22481,7 +22481,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.007 (0.80%)</t>
+          <t>0.006 (0.74%)</t>
         </is>
       </c>
     </row>
@@ -22601,7 +22601,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.000 (0.06%)</t>
+          <t>0.000 (0.05%)</t>
         </is>
       </c>
     </row>
@@ -22721,7 +22721,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.010 (1.16%)</t>
+          <t>0.008 (0.91%)</t>
         </is>
       </c>
     </row>
@@ -22781,7 +22781,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.040 (4.57%)</t>
+          <t>0.040 (4.52%)</t>
         </is>
       </c>
     </row>
@@ -22882,42 +22882,42 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.818 (0.000%)</t>
+          <t>0.818 (100.000%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.828 (1.272%)</t>
+          <t>0.828 (101.272%)</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.803 (-1.798%)</t>
+          <t>0.803 (-3.070%)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.818 (-0.024%)</t>
+          <t>0.818 (99.976%)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.817 (-0.135%)</t>
+          <t>0.817 (-0.110%)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.818 (-0.024%)</t>
+          <t>0.818 (99.976%)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.818 (0.037%)</t>
+          <t>0.818 (0.061%)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.018 (2.24%)</t>
+          <t>1.640 (200.61%)</t>
         </is>
       </c>
     </row>
@@ -22942,42 +22942,42 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.846 (-0.704%)</t>
+          <t>0.846 (99.296%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.867 (1.702%)</t>
+          <t>0.867 (101.702%)</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.824 (-3.275%)</t>
+          <t>0.824 (-4.977%)</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
+          <t>0.852 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0.852 (0.035%)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.852 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>0.852 (0.000%)</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>0.852 (0.035%)</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.852 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0.852 (0.000%)</t>
-        </is>
-      </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.032 (3.76%)</t>
+          <t>1.708 (200.51%)</t>
         </is>
       </c>
     </row>
@@ -23002,42 +23002,42 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.875 (-0.080%)</t>
+          <t>0.875 (99.920%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.890 (1.679%)</t>
+          <t>0.890 (101.679%)</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.858 (-1.976%)</t>
+          <t>0.858 (-3.655%)</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>0.875 (100.011%)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.875 (-0.069%)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.875 (100.000%)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>0.875 (0.011%)</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>0.875 (-0.057%)</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.875 (0.000%)</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.875 (0.011%)</t>
-        </is>
-      </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.023 (2.60%)</t>
+          <t>1.758 (200.81%)</t>
         </is>
       </c>
     </row>
@@ -23062,22 +23062,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.901 (-0.022%)</t>
+          <t>0.901 (99.978%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.912 (1.221%)</t>
+          <t>0.912 (101.221%)</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.896 (-0.566%)</t>
+          <t>0.896 (-1.787%)</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.901 (0.000%)</t>
+          <t>0.901 (100.000%)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -23087,17 +23087,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.901 (-0.011%)</t>
+          <t>0.901 (99.989%)</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.901 (0.011%)</t>
+          <t>0.901 (0.022%)</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>0.012 (1.35%)</t>
+          <t>1.807 (200.60%)</t>
         </is>
       </c>
     </row>
@@ -23122,42 +23122,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>0.943 (99.968%)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.944 (100.085%)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.943 (-0.180%)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0.943 (99.926%)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.943 (0.000%)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>0.943 (99.947%)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
           <t>0.943 (-0.032%)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.944 (0.085%)</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.943 (-0.095%)</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.943 (-0.074%)</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>0.943 (-0.074%)</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.943 (-0.053%)</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0.943 (-0.085%)</t>
-        </is>
-      </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.002 (0.21%)</t>
+          <t>1.887 (199.96%)</t>
         </is>
       </c>
     </row>
@@ -23182,42 +23182,42 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.966 (100.010%)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.966 (-0.010%)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.966 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>0.966 (0.000%)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.966 (0.010%)</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.966 (0.000%)</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.966 (0.031%)</t>
+          <t>0.966 (100.031%)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.966 (-0.010%)</t>
+          <t>0.966 (-0.041%)</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.932 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -23242,42 +23242,42 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>0.969 (99.990%)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.969 (99.990%)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.970 (0.010%)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0.970 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>0.969 (-0.010%)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.969 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.970 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>0.969 (-0.010%)</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.970 (0.021%)</t>
+          <t>0.970 (100.021%)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.969 (-0.010%)</t>
+          <t>0.969 (-0.031%)</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>0.000 (0.04%)</t>
+          <t>1.939 (200.00%)</t>
         </is>
       </c>
     </row>
@@ -23302,22 +23302,22 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.970 (0.000%)</t>
+          <t>0.970 (100.000%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.970 (-0.021%)</t>
+          <t>0.970 (99.979%)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.970 (-0.010%)</t>
+          <t>0.970 (0.010%)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.970 (0.000%)</t>
+          <t>0.970 (100.000%)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -23327,17 +23327,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.970 (0.031%)</t>
+          <t>0.970 (100.031%)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.970 (0.000%)</t>
+          <t>0.970 (-0.031%)</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.940 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -23362,42 +23362,42 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.972 (0.000%)</t>
+          <t>0.972 (100.000%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.974 (0.226%)</t>
+          <t>0.974 (100.226%)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.972 (0.021%)</t>
+          <t>0.972 (-0.206%)</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.973 (0.103%)</t>
+          <t>0.973 (100.103%)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.974 (0.185%)</t>
+          <t>0.974 (0.082%)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.971 (-0.062%)</t>
+          <t>0.971 (99.938%)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.972 (0.000%)</t>
+          <t>0.972 (0.062%)</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.004 (0.46%)</t>
+          <t>1.945 (200.13%)</t>
         </is>
       </c>
     </row>
@@ -23422,42 +23422,42 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.818 (0.000%)</t>
+          <t>0.818 (100.000%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.825 (0.942%)</t>
+          <t>0.825 (100.942%)</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.809 (-1.040%)</t>
+          <t>0.809 (-1.982%)</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.817 (-0.012%)</t>
+          <t>0.817 (99.988%)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.819 (0.122%)</t>
+          <t>0.819 (0.135%)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.818 (0.086%)</t>
+          <t>0.818 (100.086%)</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.820 (0.281%)</t>
+          <t>0.820 (0.196%)</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.012 (1.52%)</t>
+          <t>1.639 (200.51%)</t>
         </is>
       </c>
     </row>
@@ -23482,42 +23482,42 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.851 (-0.070%)</t>
+          <t>0.851 (99.930%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.865 (1.610%)</t>
+          <t>0.865 (101.610%)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.837 (-1.633%)</t>
+          <t>0.837 (-3.243%)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.851 (-0.012%)</t>
+          <t>0.851 (99.988%)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.852 (0.070%)</t>
+          <t>0.852 (0.082%)</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.851 (0.035%)</t>
+          <t>0.851 (100.035%)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.851 (0.012%)</t>
+          <t>0.851 (-0.023%)</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.020 (2.32%)</t>
+          <t>1.709 (200.79%)</t>
         </is>
       </c>
     </row>
@@ -23542,42 +23542,42 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.867 (0.012%)</t>
+          <t>0.867 (100.012%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.882 (1.753%)</t>
+          <t>0.882 (101.753%)</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.851 (-1.902%)</t>
+          <t>0.851 (-3.655%)</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>0.867 (-0.046%)</t>
+          <t>0.867 (99.954%)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>0.868 (0.058%)</t>
+          <t>0.868 (0.104%)</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.867 (-0.058%)</t>
+          <t>0.867 (99.942%)</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.868 (0.023%)</t>
+          <t>0.868 (0.081%)</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.023 (2.60%)</t>
+          <t>1.742 (200.84%)</t>
         </is>
       </c>
     </row>
@@ -23602,22 +23602,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0.885 (0.000%)</t>
+          <t>0.885 (100.000%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.898 (1.446%)</t>
+          <t>0.898 (101.446%)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.880 (-0.655%)</t>
+          <t>0.880 (-2.101%)</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.885 (0.000%)</t>
+          <t>0.885 (100.000%)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -23627,17 +23627,17 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.885 (-0.056%)</t>
+          <t>0.885 (99.944%)</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.886 (0.023%)</t>
+          <t>0.886 (0.079%)</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.014 (1.59%)</t>
+          <t>1.777 (200.70%)</t>
         </is>
       </c>
     </row>
@@ -23662,42 +23662,42 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.929 (-0.022%)</t>
+          <t>0.929 (99.978%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.931 (0.108%)</t>
+          <t>0.931 (100.108%)</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.929 (-0.097%)</t>
+          <t>0.929 (-0.204%)</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>0.929 (-0.011%)</t>
+          <t>0.929 (99.989%)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.930 (0.011%)</t>
+          <t>0.930 (0.022%)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>0.930 (0.022%)</t>
+          <t>0.930 (100.022%)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>0.929 (-0.011%)</t>
+          <t>0.929 (-0.032%)</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.002 (0.16%)</t>
+          <t>1.860 (200.05%)</t>
         </is>
       </c>
     </row>
@@ -23722,42 +23722,42 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.958 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.958 (-0.031%)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0.958 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
           <t>0.958 (0.000%)</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.958 (0.021%)</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.958 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>0.958 (0.000%)</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.958 (0.031%)</t>
+          <t>0.958 (100.031%)</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.958 (-0.010%)</t>
+          <t>0.958 (-0.042%)</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.916 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -23782,42 +23782,42 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0.960 (-0.021%)</t>
+          <t>0.960 (99.979%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.960 (0.010%)</t>
+          <t>0.960 (100.010%)</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.960 (0.000%)</t>
+          <t>0.960 (-0.010%)</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.960 (-0.010%)</t>
+          <t>0.960 (99.990%)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>0.960 (0.031%)</t>
+          <t>0.960 (0.042%)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.960 (0.031%)</t>
+          <t>0.960 (100.031%)</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.960 (-0.010%)</t>
+          <t>0.960 (-0.042%)</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.07%)</t>
+          <t>1.920 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -23842,42 +23842,42 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>0.960 (100.000%)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.960 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.960 (0.031%)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>0.960 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>0.960 (0.000%)</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.960 (99.990%)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>0.960 (0.000%)</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.960 (0.031%)</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0.960 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>0.960 (0.000%)</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0.960 (-0.010%)</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0.960 (-0.010%)</t>
-        </is>
-      </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>1.919 (199.99%)</t>
         </is>
       </c>
     </row>
@@ -23902,42 +23902,42 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.964 (-0.114%)</t>
+          <t>0.964 (99.886%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.965 (-0.083%)</t>
+          <t>0.965 (99.917%)</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.966 (0.062%)</t>
+          <t>0.966 (0.145%)</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.965 (-0.062%)</t>
+          <t>0.965 (99.938%)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.968 (0.207%)</t>
+          <t>0.968 (0.269%)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.966 (0.083%)</t>
+          <t>0.966 (100.083%)</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.966 (0.031%)</t>
+          <t>0.966 (-0.052%)</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.007 (0.69%)</t>
+          <t>1.930 (199.91%)</t>
         </is>
       </c>
     </row>
@@ -23962,22 +23962,22 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.807 (-0.198%)</t>
+          <t>0.807 (99.802%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.813 (0.556%)</t>
+          <t>0.813 (100.556%)</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.803 (-0.729%)</t>
+          <t>0.803 (-1.286%)</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0.809 (0.000%)</t>
+          <t>0.809 (100.000%)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -23987,17 +23987,17 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.809 (0.037%)</t>
+          <t>0.809 (100.037%)</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>0.809 (0.012%)</t>
+          <t>0.809 (-0.025%)</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.008 (0.98%)</t>
+          <t>1.619 (200.20%)</t>
         </is>
       </c>
     </row>
@@ -24022,42 +24022,42 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0.840 (-0.036%)</t>
+          <t>0.840 (99.964%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.848 (0.941%)</t>
+          <t>0.848 (100.941%)</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.829 (-1.298%)</t>
+          <t>0.829 (-2.238%)</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>0.840 (-0.012%)</t>
+          <t>0.840 (99.988%)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.840 (0.060%)</t>
+          <t>0.840 (0.071%)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>0.841 (0.071%)</t>
+          <t>0.841 (100.071%)</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.840 (-0.012%)</t>
+          <t>0.840 (-0.083%)</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.014 (1.62%)</t>
+          <t>1.684 (200.48%)</t>
         </is>
       </c>
     </row>
@@ -24082,42 +24082,42 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0.859 (-0.023%)</t>
+          <t>0.859 (99.977%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.870 (1.269%)</t>
+          <t>0.870 (101.269%)</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.846 (-1.456%)</t>
+          <t>0.846 (-2.725%)</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>0.859 (-0.023%)</t>
+          <t>0.859 (99.977%)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.860 (0.128%)</t>
+          <t>0.860 (0.151%)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>0.859 (0.035%)</t>
+          <t>0.859 (100.035%)</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.859 (-0.023%)</t>
+          <t>0.859 (-0.058%)</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.017 (1.94%)</t>
+          <t>1.723 (200.63%)</t>
         </is>
       </c>
     </row>
@@ -24142,42 +24142,42 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>0.880 (99.955%)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.890 (101.056%)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.877 (-1.498%)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>0.881 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>0.880 (-0.045%)</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.890 (1.056%)</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.877 (-0.443%)</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.881 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>0.880 (-0.045%)</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.881 (0.034%)</t>
+          <t>0.881 (100.034%)</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.881 (0.011%)</t>
+          <t>0.881 (-0.023%)</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.010 (1.15%)</t>
+          <t>1.766 (200.52%)</t>
         </is>
       </c>
     </row>
@@ -24202,22 +24202,22 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0.915 (-0.055%)</t>
+          <t>0.915 (99.945%)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.916 (0.076%)</t>
+          <t>0.916 (100.076%)</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.914 (-0.076%)</t>
+          <t>0.914 (-0.153%)</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.915 (0.000%)</t>
+          <t>0.915 (100.000%)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -24227,17 +24227,17 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.915 (0.033%)</t>
+          <t>0.915 (100.033%)</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.915 (0.000%)</t>
+          <t>0.915 (-0.033%)</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.001 (0.13%)</t>
+          <t>1.831 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -24262,22 +24262,22 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.937 (0.000%)</t>
+          <t>0.937 (100.000%)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.937 (0.021%)</t>
+          <t>0.937 (100.021%)</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.937 (0.000%)</t>
+          <t>0.937 (-0.021%)</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0.937 (0.000%)</t>
+          <t>0.937 (100.000%)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -24287,17 +24287,17 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.937 (0.032%)</t>
+          <t>0.937 (100.032%)</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>0.937 (-0.011%)</t>
+          <t>0.937 (-0.043%)</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>0.000 (0.05%)</t>
+          <t>1.874 (200.03%)</t>
         </is>
       </c>
     </row>
@@ -24322,42 +24322,42 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.942 (0.000%)</t>
+          <t>0.942 (100.000%)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>0.942 (100.021%)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.942 (-0.011%)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0.942 (100.000%)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>0.942 (0.021%)</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.942 (0.011%)</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0.942 (0.000%)</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.942 (0.021%)</t>
-        </is>
-      </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.942 (0.021%)</t>
+          <t>0.942 (100.021%)</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.941 (-0.011%)</t>
+          <t>0.941 (-0.032%)</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>1.883 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -24382,12 +24382,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0.940 (0.000%)</t>
+          <t>0.940 (100.000%)</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.940 (0.000%)</t>
+          <t>0.940 (100.000%)</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -24397,7 +24397,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.940 (0.000%)</t>
+          <t>0.940 (100.000%)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -24407,17 +24407,17 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.941 (0.043%)</t>
+          <t>0.941 (100.043%)</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.940 (0.000%)</t>
+          <t>0.940 (-0.043%)</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>1.881 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -24442,42 +24442,42 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.938 (0.000%)</t>
+          <t>0.938 (100.000%)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.938 (-0.075%)</t>
+          <t>0.938 (99.925%)</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.939 (0.064%)</t>
+          <t>0.939 (0.139%)</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.938 (-0.021%)</t>
+          <t>0.938 (99.979%)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.939 (0.107%)</t>
+          <t>0.939 (0.128%)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.937 (-0.149%)</t>
+          <t>0.937 (99.851%)</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.937 (-0.128%)</t>
+          <t>0.937 (0.021%)</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.006 (0.66%)</t>
+          <t>1.875 (199.88%)</t>
         </is>
       </c>
     </row>
@@ -24502,42 +24502,42 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0.754 (0.013%)</t>
+          <t>0.754 (100.013%)</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.757 (0.424%)</t>
+          <t>0.757 (100.424%)</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.751 (-0.424%)</t>
+          <t>0.751 (-0.849%)</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.754 (-0.027%)</t>
+          <t>0.754 (99.973%)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.753 (-0.119%)</t>
+          <t>0.753 (-0.093%)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.754 (0.066%)</t>
+          <t>0.754 (100.066%)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.755 (0.080%)</t>
+          <t>0.755 (0.013%)</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.006 (0.82%)</t>
+          <t>1.510 (200.24%)</t>
         </is>
       </c>
     </row>
@@ -24562,22 +24562,22 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.776 (-0.180%)</t>
+          <t>0.776 (99.820%)</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.782 (0.669%)</t>
+          <t>0.782 (100.669%)</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.770 (-0.875%)</t>
+          <t>0.770 (-1.544%)</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>0.777 (0.000%)</t>
+          <t>0.777 (100.000%)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -24587,17 +24587,17 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.778 (0.116%)</t>
+          <t>0.778 (100.116%)</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.777 (0.000%)</t>
+          <t>0.777 (-0.116%)</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.009 (1.21%)</t>
+          <t>1.557 (200.30%)</t>
         </is>
       </c>
     </row>
@@ -24622,42 +24622,42 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.798 (-0.063%)</t>
+          <t>0.798 (99.937%)</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.805 (0.877%)</t>
+          <t>0.805 (100.877%)</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.791 (-0.915%)</t>
+          <t>0.791 (-1.792%)</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.798 (0.013%)</t>
+          <t>0.798 (100.013%)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>0.798 (0.000%)</t>
+          <t>0.798 (-0.013%)</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.798 (0.038%)</t>
+          <t>0.798 (100.038%)</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.798 (-0.013%)</t>
+          <t>0.798 (-0.050%)</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.010 (1.29%)</t>
+          <t>1.600 (200.43%)</t>
         </is>
       </c>
     </row>
@@ -24682,42 +24682,42 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0.824 (0.000%)</t>
+          <t>0.824 (100.000%)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.830 (0.679%)</t>
+          <t>0.830 (100.679%)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.822 (-0.218%)</t>
+          <t>0.822 (-0.898%)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.824 (-0.012%)</t>
+          <t>0.824 (99.988%)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>0.824 (0.024%)</t>
+          <t>0.824 (0.036%)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.825 (0.097%)</t>
+          <t>0.825 (100.097%)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0.824 (0.012%)</t>
+          <t>0.824 (-0.085%)</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.006 (0.73%)</t>
+          <t>1.652 (200.38%)</t>
         </is>
       </c>
     </row>
@@ -24742,22 +24742,22 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
+          <t>0.856 (99.907%)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.857 (100.000%)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>0.856 (-0.093%)</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.857 (0.000%)</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.856 (-0.093%)</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.857 (0.000%)</t>
+          <t>0.857 (100.000%)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -24767,17 +24767,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.857 (0.023%)</t>
+          <t>0.857 (100.023%)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.857 (-0.012%)</t>
+          <t>0.857 (-0.035%)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.001 (0.16%)</t>
+          <t>1.713 (199.97%)</t>
         </is>
       </c>
     </row>
@@ -24802,22 +24802,22 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0.878 (0.000%)</t>
+          <t>0.878 (100.000%)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.878 (0.034%)</t>
+          <t>0.878 (100.034%)</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.878 (0.000%)</t>
+          <t>0.878 (-0.034%)</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.878 (0.000%)</t>
+          <t>0.878 (100.000%)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -24827,17 +24827,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.878 (0.046%)</t>
+          <t>0.878 (100.046%)</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.878 (0.000%)</t>
+          <t>0.878 (-0.046%)</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>1.756 (200.04%)</t>
         </is>
       </c>
     </row>
@@ -24862,12 +24862,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.882 (0.000%)</t>
+          <t>0.882 (100.000%)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.882 (0.000%)</t>
+          <t>0.882 (100.000%)</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -24877,7 +24877,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.882 (0.000%)</t>
+          <t>0.882 (100.000%)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -24887,17 +24887,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.883 (0.023%)</t>
+          <t>0.883 (100.023%)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0.882 (-0.011%)</t>
+          <t>0.882 (-0.034%)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.001 (0.15%)</t>
+          <t>1.765 (200.01%)</t>
         </is>
       </c>
     </row>
@@ -24922,22 +24922,22 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.885 (0.000%)</t>
+          <t>0.885 (100.000%)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.885 (-0.034%)</t>
+          <t>0.885 (99.966%)</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.885 (0.034%)</t>
+          <t>0.885 (0.068%)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.885 (0.000%)</t>
+          <t>0.885 (100.000%)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -24947,17 +24947,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.886 (0.068%)</t>
+          <t>0.886 (100.068%)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.885 (0.000%)</t>
+          <t>0.885 (-0.068%)</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.003 (0.33%)</t>
+          <t>1.770 (200.02%)</t>
         </is>
       </c>
     </row>
@@ -24982,42 +24982,42 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0.922 (0.798%)</t>
+          <t>0.922 (100.798%)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.916 (0.120%)</t>
+          <t>0.916 (100.120%)</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.917 (0.186%)</t>
+          <t>0.917 (0.066%)</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.916 (0.044%)</t>
+          <t>0.916 (100.044%)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0.914 (-0.131%)</t>
+          <t>0.914 (-0.175%)</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.920 (0.492%)</t>
+          <t>0.920 (100.492%)</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.916 (0.131%)</t>
+          <t>0.916 (-0.361%)</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.022 (2.42%)</t>
+          <t>1.837 (200.74%)</t>
         </is>
       </c>
     </row>
@@ -25153,7 +25153,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.006 (0.63%)</t>
+          <t>0.006 (0.62%)</t>
         </is>
       </c>
     </row>
@@ -25213,7 +25213,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.009 (0.93%)</t>
+          <t>0.009 (0.89%)</t>
         </is>
       </c>
     </row>
@@ -25273,7 +25273,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0.004 (0.41%)</t>
+          <t>0.003 (0.33%)</t>
         </is>
       </c>
     </row>
@@ -25393,7 +25393,7 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>0.002 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -25453,7 +25453,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.001 (0.06%)</t>
+          <t>0.000 (0.04%)</t>
         </is>
       </c>
     </row>
@@ -25573,7 +25573,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.002 (0.18%)</t>
+          <t>0.001 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -25633,7 +25633,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.007 (0.66%)</t>
+          <t>0.006 (0.63%)</t>
         </is>
       </c>
     </row>
@@ -25693,7 +25693,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.011 (1.13%)</t>
+          <t>0.011 (1.06%)</t>
         </is>
       </c>
     </row>
@@ -25753,7 +25753,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.006 (0.57%)</t>
+          <t>0.006 (0.56%)</t>
         </is>
       </c>
     </row>
@@ -25813,7 +25813,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.004 (0.39%)</t>
+          <t>0.004 (0.35%)</t>
         </is>
       </c>
     </row>
@@ -25873,7 +25873,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0.002 (0.24%)</t>
+          <t>0.002 (0.20%)</t>
         </is>
       </c>
     </row>
@@ -25933,7 +25933,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.001 (0.12%)</t>
+          <t>0.001 (0.11%)</t>
         </is>
       </c>
     </row>
@@ -26053,7 +26053,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.10%)</t>
         </is>
       </c>
     </row>
@@ -26113,7 +26113,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.002 (0.23%)</t>
+          <t>0.002 (0.20%)</t>
         </is>
       </c>
     </row>
@@ -26233,7 +26233,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0.011 (1.10%)</t>
+          <t>0.011 (1.04%)</t>
         </is>
       </c>
     </row>
@@ -26293,7 +26293,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>0.005 (0.52%)</t>
+          <t>0.005 (0.48%)</t>
         </is>
       </c>
     </row>
@@ -26353,7 +26353,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>0.002 (0.16%)</t>
         </is>
       </c>
     </row>
@@ -26413,7 +26413,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.002 (0.15%)</t>
+          <t>0.001 (0.15%)</t>
         </is>
       </c>
     </row>
@@ -26593,7 +26593,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0.001 (0.08%)</t>
+          <t>0.001 (0.06%)</t>
         </is>
       </c>
     </row>
@@ -26653,7 +26653,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.001 (0.11%)</t>
+          <t>0.001 (0.09%)</t>
         </is>
       </c>
     </row>
@@ -26713,7 +26713,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.009 (0.89%)</t>
+          <t>0.009 (0.87%)</t>
         </is>
       </c>
     </row>
@@ -26773,7 +26773,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.023 (2.28%)</t>
+          <t>0.022 (2.18%)</t>
         </is>
       </c>
     </row>
@@ -26833,7 +26833,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>0.006 (0.57%)</t>
+          <t>0.006 (0.55%)</t>
         </is>
       </c>
     </row>
@@ -26953,7 +26953,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>0.002 (0.17%)</t>
         </is>
       </c>
     </row>
@@ -27013,7 +27013,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>0.002 (0.20%)</t>
+          <t>0.002 (0.18%)</t>
         </is>
       </c>
     </row>
@@ -27073,7 +27073,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.001 (0.10%)</t>
+          <t>0.001 (0.08%)</t>
         </is>
       </c>
     </row>
@@ -27133,7 +27133,7 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.003 (0.34%)</t>
+          <t>0.003 (0.33%)</t>
         </is>
       </c>
     </row>
@@ -27193,7 +27193,7 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.012 (1.21%)</t>
+          <t>0.009 (0.95%)</t>
         </is>
       </c>
     </row>
@@ -27253,7 +27253,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>0.048 (4.95%)</t>
+          <t>0.046 (4.81%)</t>
         </is>
       </c>
     </row>
